--- a/public/import/Categorias.xlsx
+++ b/public/import/Categorias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\smasys\public\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552AD0B1-62C3-4E4A-90DD-0CD39331C20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC0E632-6901-4B3B-A1AA-3CDD6E5464CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{190431D2-E99E-4CC8-9814-26C255DEA302}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2023" uniqueCount="876">
   <si>
     <t>Modulo</t>
   </si>
@@ -2650,6 +2650,9 @@
   </si>
   <si>
     <t xml:space="preserve">PARTICULAR                    </t>
+  </si>
+  <si>
+    <t>CONVIVIENTE</t>
   </si>
 </sst>
 </file>
@@ -3038,10 +3041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C291EB2-B0B0-413C-9899-EF0DCE462065}">
-  <dimension ref="A1:C675"/>
+  <dimension ref="A1:C676"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A662" workbookViewId="0">
-      <selection activeCell="A673" sqref="A673"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3241,13 +3244,13 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>38</v>
+        <v>875</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -3255,10 +3258,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -3266,10 +3269,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -3277,10 +3280,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -3288,10 +3291,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -3299,10 +3302,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -3310,10 +3313,10 @@
         <v>19</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -3321,10 +3324,10 @@
         <v>19</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -3332,10 +3335,10 @@
         <v>19</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -3343,10 +3346,10 @@
         <v>19</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -3354,10 +3357,10 @@
         <v>19</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -3365,21 +3368,21 @@
         <v>19</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>50</v>
+      <c r="B30" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -3387,10 +3390,10 @@
         <v>19</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -3398,10 +3401,10 @@
         <v>19</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -3409,10 +3412,10 @@
         <v>19</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -3420,10 +3423,10 @@
         <v>19</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -3431,10 +3434,10 @@
         <v>19</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -3442,32 +3445,32 @@
         <v>19</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>14</v>
+        <v>56</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>17</v>
+      <c r="B38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -3475,10 +3478,10 @@
         <v>10</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -3486,21 +3489,21 @@
         <v>10</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" t="s">
-        <v>90</v>
+        <v>10</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -3508,10 +3511,10 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -3519,10 +3522,10 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -3530,10 +3533,10 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -3541,10 +3544,10 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -3552,10 +3555,10 @@
         <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C46" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -3563,10 +3566,10 @@
         <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -3574,10 +3577,10 @@
         <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -3585,10 +3588,10 @@
         <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C49" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -3596,10 +3599,10 @@
         <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -3607,10 +3610,10 @@
         <v>23</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C51" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -3618,10 +3621,10 @@
         <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C52" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -3629,10 +3632,10 @@
         <v>23</v>
       </c>
       <c r="B53" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C53" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -3640,10 +3643,10 @@
         <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C54" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -3651,10 +3654,10 @@
         <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C55" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -3662,10 +3665,10 @@
         <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C56" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -3673,10 +3676,10 @@
         <v>23</v>
       </c>
       <c r="B57" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C57" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -3684,10 +3687,10 @@
         <v>23</v>
       </c>
       <c r="B58" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C58" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -3695,10 +3698,10 @@
         <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C59" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -3706,10 +3709,10 @@
         <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C60" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -3717,10 +3720,10 @@
         <v>23</v>
       </c>
       <c r="B61" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C61" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -3728,10 +3731,10 @@
         <v>23</v>
       </c>
       <c r="B62" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C62" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -3739,10 +3742,10 @@
         <v>23</v>
       </c>
       <c r="B63" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C63" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -3750,10 +3753,10 @@
         <v>23</v>
       </c>
       <c r="B64" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C64" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -3761,10 +3764,10 @@
         <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C65" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -3772,10 +3775,10 @@
         <v>23</v>
       </c>
       <c r="B66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C66" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -3783,10 +3786,10 @@
         <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C67" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -3794,10 +3797,10 @@
         <v>23</v>
       </c>
       <c r="B68" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C68" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -3805,10 +3808,10 @@
         <v>23</v>
       </c>
       <c r="B69" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C69" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -3816,10 +3819,10 @@
         <v>23</v>
       </c>
       <c r="B70" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C70" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -3827,10 +3830,10 @@
         <v>23</v>
       </c>
       <c r="B71" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C71" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -3838,10 +3841,10 @@
         <v>23</v>
       </c>
       <c r="B72" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C72" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -3849,10 +3852,10 @@
         <v>23</v>
       </c>
       <c r="B73" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C73" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -3860,10 +3863,10 @@
         <v>23</v>
       </c>
       <c r="B74" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C74" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -3871,10 +3874,10 @@
         <v>23</v>
       </c>
       <c r="B75" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C75" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -3882,10 +3885,10 @@
         <v>23</v>
       </c>
       <c r="B76" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C76" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -3893,10 +3896,10 @@
         <v>23</v>
       </c>
       <c r="B77" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C77" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -3904,10 +3907,10 @@
         <v>23</v>
       </c>
       <c r="B78" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C78" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -3915,10 +3918,10 @@
         <v>23</v>
       </c>
       <c r="B79" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C79" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -3926,10 +3929,10 @@
         <v>23</v>
       </c>
       <c r="B80" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C80" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -3937,10 +3940,10 @@
         <v>23</v>
       </c>
       <c r="B81" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C81" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -3948,10 +3951,10 @@
         <v>23</v>
       </c>
       <c r="B82" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C82" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -3959,10 +3962,10 @@
         <v>23</v>
       </c>
       <c r="B83" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C83" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -3970,10 +3973,10 @@
         <v>23</v>
       </c>
       <c r="B84" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C84" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -3981,10 +3984,10 @@
         <v>23</v>
       </c>
       <c r="B85" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C85" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -3992,10 +3995,10 @@
         <v>23</v>
       </c>
       <c r="B86" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C86" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -4003,10 +4006,10 @@
         <v>23</v>
       </c>
       <c r="B87" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C87" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -4014,10 +4017,10 @@
         <v>23</v>
       </c>
       <c r="B88" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C88" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -4025,10 +4028,10 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C89" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -4036,10 +4039,10 @@
         <v>23</v>
       </c>
       <c r="B90" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C90" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -4047,10 +4050,10 @@
         <v>23</v>
       </c>
       <c r="B91" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="C91" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -4058,10 +4061,10 @@
         <v>23</v>
       </c>
       <c r="B92" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="C92" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -4069,10 +4072,10 @@
         <v>23</v>
       </c>
       <c r="B93" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C93" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -4080,10 +4083,10 @@
         <v>23</v>
       </c>
       <c r="B94" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C94" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -4091,10 +4094,10 @@
         <v>23</v>
       </c>
       <c r="B95" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C95" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -4102,10 +4105,10 @@
         <v>23</v>
       </c>
       <c r="B96" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C96" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -4113,10 +4116,10 @@
         <v>23</v>
       </c>
       <c r="B97" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C97" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -4124,10 +4127,10 @@
         <v>23</v>
       </c>
       <c r="B98" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C98" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -4135,10 +4138,10 @@
         <v>23</v>
       </c>
       <c r="B99" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C99" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -4146,10 +4149,10 @@
         <v>23</v>
       </c>
       <c r="B100" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C100" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -4157,10 +4160,10 @@
         <v>23</v>
       </c>
       <c r="B101" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C101" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -4168,10 +4171,10 @@
         <v>23</v>
       </c>
       <c r="B102" t="s">
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="C102" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -4179,10 +4182,10 @@
         <v>23</v>
       </c>
       <c r="B103" t="s">
-        <v>211</v>
+        <v>109</v>
       </c>
       <c r="C103" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -4190,10 +4193,10 @@
         <v>23</v>
       </c>
       <c r="B104" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C104" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -4201,10 +4204,10 @@
         <v>23</v>
       </c>
       <c r="B105" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C105" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -4212,10 +4215,10 @@
         <v>23</v>
       </c>
       <c r="B106" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C106" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -4223,10 +4226,10 @@
         <v>23</v>
       </c>
       <c r="B107" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C107" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -4234,10 +4237,10 @@
         <v>23</v>
       </c>
       <c r="B108" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C108" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -4245,10 +4248,10 @@
         <v>23</v>
       </c>
       <c r="B109" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C109" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -4256,10 +4259,10 @@
         <v>23</v>
       </c>
       <c r="B110" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C110" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -4267,10 +4270,10 @@
         <v>23</v>
       </c>
       <c r="B111" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C111" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -4278,10 +4281,10 @@
         <v>23</v>
       </c>
       <c r="B112" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C112" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -4289,10 +4292,10 @@
         <v>23</v>
       </c>
       <c r="B113" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C113" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -4300,10 +4303,10 @@
         <v>23</v>
       </c>
       <c r="B114" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C114" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -4311,10 +4314,10 @@
         <v>23</v>
       </c>
       <c r="B115" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C115" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -4322,10 +4325,10 @@
         <v>23</v>
       </c>
       <c r="B116" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C116" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -4333,10 +4336,10 @@
         <v>23</v>
       </c>
       <c r="B117" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="C117" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -4344,10 +4347,10 @@
         <v>23</v>
       </c>
       <c r="B118" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="C118" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -4355,10 +4358,10 @@
         <v>23</v>
       </c>
       <c r="B119" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C119" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -4366,10 +4369,10 @@
         <v>23</v>
       </c>
       <c r="B120" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C120" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -4377,10 +4380,10 @@
         <v>23</v>
       </c>
       <c r="B121" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C121" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -4388,10 +4391,10 @@
         <v>23</v>
       </c>
       <c r="B122" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C122" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -4399,10 +4402,10 @@
         <v>23</v>
       </c>
       <c r="B123" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C123" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -4410,10 +4413,10 @@
         <v>23</v>
       </c>
       <c r="B124" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C124" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -4421,10 +4424,10 @@
         <v>23</v>
       </c>
       <c r="B125" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C125" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -4432,10 +4435,10 @@
         <v>23</v>
       </c>
       <c r="B126" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C126" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -4443,10 +4446,10 @@
         <v>23</v>
       </c>
       <c r="B127" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C127" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -4454,10 +4457,10 @@
         <v>23</v>
       </c>
       <c r="B128" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C128" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -4465,10 +4468,10 @@
         <v>23</v>
       </c>
       <c r="B129" t="s">
-        <v>157</v>
+        <v>259</v>
       </c>
       <c r="C129" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -4476,10 +4479,10 @@
         <v>23</v>
       </c>
       <c r="B130" t="s">
-        <v>262</v>
+        <v>157</v>
       </c>
       <c r="C130" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -4487,10 +4490,10 @@
         <v>23</v>
       </c>
       <c r="B131" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C131" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -4498,10 +4501,10 @@
         <v>23</v>
       </c>
       <c r="B132" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C132" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -4509,10 +4512,10 @@
         <v>23</v>
       </c>
       <c r="B133" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C133" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -4520,10 +4523,10 @@
         <v>23</v>
       </c>
       <c r="B134" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C134" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -4531,10 +4534,10 @@
         <v>23</v>
       </c>
       <c r="B135" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C135" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -4542,10 +4545,10 @@
         <v>23</v>
       </c>
       <c r="B136" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C136" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -4553,10 +4556,10 @@
         <v>23</v>
       </c>
       <c r="B137" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C137" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -4564,10 +4567,10 @@
         <v>23</v>
       </c>
       <c r="B138" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C138" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -4575,10 +4578,10 @@
         <v>23</v>
       </c>
       <c r="B139" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C139" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -4586,10 +4589,10 @@
         <v>23</v>
       </c>
       <c r="B140" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C140" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -4597,10 +4600,10 @@
         <v>23</v>
       </c>
       <c r="B141" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C141" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -4608,10 +4611,10 @@
         <v>23</v>
       </c>
       <c r="B142" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C142" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -4619,10 +4622,10 @@
         <v>23</v>
       </c>
       <c r="B143" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C143" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -4630,10 +4633,10 @@
         <v>23</v>
       </c>
       <c r="B144" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C144" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -4641,10 +4644,10 @@
         <v>23</v>
       </c>
       <c r="B145" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C145" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -4652,10 +4655,10 @@
         <v>23</v>
       </c>
       <c r="B146" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C146" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -4663,10 +4666,10 @@
         <v>23</v>
       </c>
       <c r="B147" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C147" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -4674,10 +4677,10 @@
         <v>23</v>
       </c>
       <c r="B148" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C148" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -4685,10 +4688,10 @@
         <v>23</v>
       </c>
       <c r="B149" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C149" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -4696,10 +4699,10 @@
         <v>23</v>
       </c>
       <c r="B150" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C150" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -4707,10 +4710,10 @@
         <v>23</v>
       </c>
       <c r="B151" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C151" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -4718,10 +4721,10 @@
         <v>23</v>
       </c>
       <c r="B152" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C152" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -4729,10 +4732,10 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C153" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -4740,10 +4743,10 @@
         <v>23</v>
       </c>
       <c r="B154" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C154" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -4751,10 +4754,10 @@
         <v>23</v>
       </c>
       <c r="B155" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C155" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -4762,10 +4765,10 @@
         <v>23</v>
       </c>
       <c r="B156" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C156" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -4773,10 +4776,10 @@
         <v>23</v>
       </c>
       <c r="B157" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C157" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -4784,10 +4787,10 @@
         <v>23</v>
       </c>
       <c r="B158" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C158" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -4795,10 +4798,10 @@
         <v>23</v>
       </c>
       <c r="B159" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C159" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -4806,10 +4809,10 @@
         <v>23</v>
       </c>
       <c r="B160" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C160" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -4817,10 +4820,10 @@
         <v>23</v>
       </c>
       <c r="B161" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C161" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -4828,10 +4831,10 @@
         <v>23</v>
       </c>
       <c r="B162" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C162" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -4839,10 +4842,10 @@
         <v>23</v>
       </c>
       <c r="B163" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C163" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -4850,10 +4853,10 @@
         <v>23</v>
       </c>
       <c r="B164" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C164" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -4861,10 +4864,10 @@
         <v>23</v>
       </c>
       <c r="B165" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C165" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -4872,10 +4875,10 @@
         <v>23</v>
       </c>
       <c r="B166" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C166" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -4883,10 +4886,10 @@
         <v>23</v>
       </c>
       <c r="B167" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C167" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -4894,10 +4897,10 @@
         <v>23</v>
       </c>
       <c r="B168" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C168" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -4905,10 +4908,10 @@
         <v>23</v>
       </c>
       <c r="B169" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C169" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -4916,10 +4919,10 @@
         <v>23</v>
       </c>
       <c r="B170" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C170" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -4927,10 +4930,10 @@
         <v>23</v>
       </c>
       <c r="B171" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C171" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -4938,10 +4941,10 @@
         <v>23</v>
       </c>
       <c r="B172" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C172" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -4949,10 +4952,10 @@
         <v>23</v>
       </c>
       <c r="B173" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C173" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -4960,10 +4963,10 @@
         <v>23</v>
       </c>
       <c r="B174" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C174" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -4971,10 +4974,10 @@
         <v>23</v>
       </c>
       <c r="B175" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C175" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -4982,10 +4985,10 @@
         <v>23</v>
       </c>
       <c r="B176" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C176" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -4993,10 +4996,10 @@
         <v>23</v>
       </c>
       <c r="B177" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C177" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -5004,10 +5007,10 @@
         <v>23</v>
       </c>
       <c r="B178" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C178" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -5015,10 +5018,10 @@
         <v>23</v>
       </c>
       <c r="B179" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C179" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -5026,10 +5029,10 @@
         <v>23</v>
       </c>
       <c r="B180" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C180" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -5037,10 +5040,10 @@
         <v>23</v>
       </c>
       <c r="B181" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C181" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -5048,10 +5051,10 @@
         <v>23</v>
       </c>
       <c r="B182" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C182" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -5059,10 +5062,10 @@
         <v>23</v>
       </c>
       <c r="B183" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C183" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -5070,10 +5073,10 @@
         <v>23</v>
       </c>
       <c r="B184" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C184" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -5081,10 +5084,10 @@
         <v>23</v>
       </c>
       <c r="B185" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C185" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -5092,10 +5095,10 @@
         <v>23</v>
       </c>
       <c r="B186" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C186" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -5103,10 +5106,10 @@
         <v>23</v>
       </c>
       <c r="B187" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C187" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -5114,10 +5117,10 @@
         <v>23</v>
       </c>
       <c r="B188" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C188" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -5125,10 +5128,10 @@
         <v>23</v>
       </c>
       <c r="B189" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C189" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -5136,10 +5139,10 @@
         <v>23</v>
       </c>
       <c r="B190" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C190" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -5147,10 +5150,10 @@
         <v>23</v>
       </c>
       <c r="B191" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C191" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -5158,10 +5161,10 @@
         <v>23</v>
       </c>
       <c r="B192" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C192" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -5169,10 +5172,10 @@
         <v>23</v>
       </c>
       <c r="B193" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C193" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -5180,10 +5183,10 @@
         <v>23</v>
       </c>
       <c r="B194" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C194" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -5191,10 +5194,10 @@
         <v>23</v>
       </c>
       <c r="B195" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C195" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -5202,10 +5205,10 @@
         <v>23</v>
       </c>
       <c r="B196" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C196" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -5213,10 +5216,10 @@
         <v>23</v>
       </c>
       <c r="B197" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C197" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -5224,10 +5227,10 @@
         <v>23</v>
       </c>
       <c r="B198" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C198" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -5235,10 +5238,10 @@
         <v>23</v>
       </c>
       <c r="B199" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C199" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -5246,10 +5249,10 @@
         <v>23</v>
       </c>
       <c r="B200" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C200" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -5257,10 +5260,10 @@
         <v>23</v>
       </c>
       <c r="B201" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C201" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -5268,10 +5271,10 @@
         <v>23</v>
       </c>
       <c r="B202" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C202" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -5279,10 +5282,10 @@
         <v>23</v>
       </c>
       <c r="B203" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C203" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -5290,10 +5293,10 @@
         <v>23</v>
       </c>
       <c r="B204" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C204" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -5301,10 +5304,10 @@
         <v>23</v>
       </c>
       <c r="B205" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C205" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -5312,10 +5315,10 @@
         <v>23</v>
       </c>
       <c r="B206" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C206" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -5323,10 +5326,10 @@
         <v>23</v>
       </c>
       <c r="B207" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C207" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -5334,10 +5337,10 @@
         <v>23</v>
       </c>
       <c r="B208" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C208" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -5345,10 +5348,10 @@
         <v>23</v>
       </c>
       <c r="B209" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C209" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -5356,10 +5359,10 @@
         <v>23</v>
       </c>
       <c r="B210" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C210" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -5367,10 +5370,10 @@
         <v>23</v>
       </c>
       <c r="B211" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C211" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -5378,10 +5381,10 @@
         <v>23</v>
       </c>
       <c r="B212" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C212" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -5389,10 +5392,10 @@
         <v>23</v>
       </c>
       <c r="B213" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C213" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -5400,10 +5403,10 @@
         <v>23</v>
       </c>
       <c r="B214" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C214" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -5411,10 +5414,10 @@
         <v>23</v>
       </c>
       <c r="B215" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C215" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -5422,10 +5425,10 @@
         <v>23</v>
       </c>
       <c r="B216" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C216" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -5433,10 +5436,10 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C217" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -5444,10 +5447,10 @@
         <v>23</v>
       </c>
       <c r="B218" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C218" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -5455,10 +5458,10 @@
         <v>23</v>
       </c>
       <c r="B219" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C219" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -5466,10 +5469,10 @@
         <v>23</v>
       </c>
       <c r="B220" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C220" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -5477,10 +5480,10 @@
         <v>23</v>
       </c>
       <c r="B221" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C221" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -5488,10 +5491,10 @@
         <v>23</v>
       </c>
       <c r="B222" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C222" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -5499,10 +5502,10 @@
         <v>23</v>
       </c>
       <c r="B223" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C223" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -5510,10 +5513,10 @@
         <v>23</v>
       </c>
       <c r="B224" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C224" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -5521,10 +5524,10 @@
         <v>23</v>
       </c>
       <c r="B225" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C225" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -5532,10 +5535,10 @@
         <v>23</v>
       </c>
       <c r="B226" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C226" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -5543,10 +5546,10 @@
         <v>23</v>
       </c>
       <c r="B227" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C227" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -5554,10 +5557,10 @@
         <v>23</v>
       </c>
       <c r="B228" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C228" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -5565,10 +5568,10 @@
         <v>23</v>
       </c>
       <c r="B229" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C229" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -5576,10 +5579,10 @@
         <v>23</v>
       </c>
       <c r="B230" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C230" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -5587,10 +5590,10 @@
         <v>23</v>
       </c>
       <c r="B231" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C231" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -5598,10 +5601,10 @@
         <v>23</v>
       </c>
       <c r="B232" t="s">
-        <v>298</v>
+        <v>464</v>
       </c>
       <c r="C232" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -5609,10 +5612,10 @@
         <v>23</v>
       </c>
       <c r="B233" t="s">
-        <v>467</v>
+        <v>298</v>
       </c>
       <c r="C233" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -5620,10 +5623,10 @@
         <v>23</v>
       </c>
       <c r="B234" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C234" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -5631,10 +5634,10 @@
         <v>23</v>
       </c>
       <c r="B235" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C235" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -5642,10 +5645,10 @@
         <v>23</v>
       </c>
       <c r="B236" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C236" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -5653,10 +5656,10 @@
         <v>23</v>
       </c>
       <c r="B237" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C237" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -5664,10 +5667,10 @@
         <v>23</v>
       </c>
       <c r="B238" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C238" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -5675,10 +5678,10 @@
         <v>23</v>
       </c>
       <c r="B239" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C239" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -5686,10 +5689,10 @@
         <v>23</v>
       </c>
       <c r="B240" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C240" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -5697,10 +5700,10 @@
         <v>23</v>
       </c>
       <c r="B241" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C241" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -5708,10 +5711,10 @@
         <v>23</v>
       </c>
       <c r="B242" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C242" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -5719,10 +5722,10 @@
         <v>23</v>
       </c>
       <c r="B243" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C243" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -5730,10 +5733,10 @@
         <v>23</v>
       </c>
       <c r="B244" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C244" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -5741,10 +5744,10 @@
         <v>23</v>
       </c>
       <c r="B245" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C245" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -5752,10 +5755,10 @@
         <v>23</v>
       </c>
       <c r="B246" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C246" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -5763,10 +5766,10 @@
         <v>23</v>
       </c>
       <c r="B247" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C247" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -5774,10 +5777,10 @@
         <v>23</v>
       </c>
       <c r="B248" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C248" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -5785,10 +5788,10 @@
         <v>23</v>
       </c>
       <c r="B249" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C249" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -5796,10 +5799,10 @@
         <v>23</v>
       </c>
       <c r="B250" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C250" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -5807,10 +5810,10 @@
         <v>23</v>
       </c>
       <c r="B251" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C251" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -5818,10 +5821,10 @@
         <v>23</v>
       </c>
       <c r="B252" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C252" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -5829,10 +5832,10 @@
         <v>23</v>
       </c>
       <c r="B253" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C253" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -5840,10 +5843,10 @@
         <v>23</v>
       </c>
       <c r="B254" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C254" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -5851,10 +5854,10 @@
         <v>23</v>
       </c>
       <c r="B255" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C255" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -5862,10 +5865,10 @@
         <v>23</v>
       </c>
       <c r="B256" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C256" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -5873,10 +5876,10 @@
         <v>23</v>
       </c>
       <c r="B257" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C257" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -5884,10 +5887,10 @@
         <v>23</v>
       </c>
       <c r="B258" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C258" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -5895,10 +5898,10 @@
         <v>23</v>
       </c>
       <c r="B259" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C259" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -5906,10 +5909,10 @@
         <v>23</v>
       </c>
       <c r="B260" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C260" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -5917,10 +5920,10 @@
         <v>23</v>
       </c>
       <c r="B261" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C261" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -5928,10 +5931,10 @@
         <v>23</v>
       </c>
       <c r="B262" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C262" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -5939,10 +5942,10 @@
         <v>23</v>
       </c>
       <c r="B263" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C263" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -5950,10 +5953,10 @@
         <v>23</v>
       </c>
       <c r="B264" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C264" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -5961,10 +5964,10 @@
         <v>23</v>
       </c>
       <c r="B265" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C265" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -5972,10 +5975,10 @@
         <v>23</v>
       </c>
       <c r="B266" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C266" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -5983,10 +5986,10 @@
         <v>23</v>
       </c>
       <c r="B267" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C267" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -5994,10 +5997,10 @@
         <v>23</v>
       </c>
       <c r="B268" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C268" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -6005,10 +6008,10 @@
         <v>23</v>
       </c>
       <c r="B269" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C269" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -6016,10 +6019,10 @@
         <v>23</v>
       </c>
       <c r="B270" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C270" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -6027,10 +6030,10 @@
         <v>23</v>
       </c>
       <c r="B271" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C271" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -6038,10 +6041,10 @@
         <v>23</v>
       </c>
       <c r="B272" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C272" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -6049,10 +6052,10 @@
         <v>23</v>
       </c>
       <c r="B273" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C273" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -6060,10 +6063,10 @@
         <v>23</v>
       </c>
       <c r="B274" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C274" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -6071,10 +6074,10 @@
         <v>23</v>
       </c>
       <c r="B275" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C275" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -6082,10 +6085,10 @@
         <v>23</v>
       </c>
       <c r="B276" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C276" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -6093,10 +6096,10 @@
         <v>23</v>
       </c>
       <c r="B277" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C277" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -6104,10 +6107,10 @@
         <v>23</v>
       </c>
       <c r="B278" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C278" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -6115,10 +6118,10 @@
         <v>23</v>
       </c>
       <c r="B279" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C279" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -6126,10 +6129,10 @@
         <v>23</v>
       </c>
       <c r="B280" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C280" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -6137,10 +6140,10 @@
         <v>23</v>
       </c>
       <c r="B281" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C281" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -6148,10 +6151,10 @@
         <v>23</v>
       </c>
       <c r="B282" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C282" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -6159,10 +6162,10 @@
         <v>23</v>
       </c>
       <c r="B283" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C283" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -6170,10 +6173,10 @@
         <v>23</v>
       </c>
       <c r="B284" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C284" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -6181,10 +6184,10 @@
         <v>23</v>
       </c>
       <c r="B285" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C285" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -6192,10 +6195,10 @@
         <v>23</v>
       </c>
       <c r="B286" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C286" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -6203,10 +6206,10 @@
         <v>23</v>
       </c>
       <c r="B287" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C287" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -6214,10 +6217,10 @@
         <v>23</v>
       </c>
       <c r="B288" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C288" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -6225,10 +6228,10 @@
         <v>23</v>
       </c>
       <c r="B289" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C289" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -6236,10 +6239,10 @@
         <v>23</v>
       </c>
       <c r="B290" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C290" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -6247,10 +6250,10 @@
         <v>23</v>
       </c>
       <c r="B291" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C291" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -6258,10 +6261,10 @@
         <v>23</v>
       </c>
       <c r="B292" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C292" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -6269,10 +6272,10 @@
         <v>23</v>
       </c>
       <c r="B293" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C293" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -6280,10 +6283,10 @@
         <v>23</v>
       </c>
       <c r="B294" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C294" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -6291,10 +6294,10 @@
         <v>23</v>
       </c>
       <c r="B295" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C295" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -6302,21 +6305,21 @@
         <v>23</v>
       </c>
       <c r="B296" t="s">
-        <v>549</v>
+        <v>591</v>
       </c>
       <c r="C296" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B297" t="s">
-        <v>234</v>
+        <v>549</v>
       </c>
       <c r="C297" t="s">
-        <v>90</v>
+        <v>593</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -6324,10 +6327,10 @@
         <v>31</v>
       </c>
       <c r="B298" t="s">
-        <v>594</v>
+        <v>234</v>
       </c>
       <c r="C298" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -6335,10 +6338,10 @@
         <v>31</v>
       </c>
       <c r="B299" t="s">
-        <v>93</v>
+        <v>594</v>
       </c>
       <c r="C299" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -6346,10 +6349,10 @@
         <v>31</v>
       </c>
       <c r="B300" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C300" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -6357,10 +6360,10 @@
         <v>31</v>
       </c>
       <c r="B301" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C301" t="s">
-        <v>595</v>
+        <v>96</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -6368,10 +6371,10 @@
         <v>31</v>
       </c>
       <c r="B302" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C302" t="s">
-        <v>98</v>
+        <v>595</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -6379,10 +6382,10 @@
         <v>31</v>
       </c>
       <c r="B303" t="s">
-        <v>208</v>
+        <v>89</v>
       </c>
       <c r="C303" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -6390,10 +6393,10 @@
         <v>31</v>
       </c>
       <c r="B304" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C304" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -6401,10 +6404,10 @@
         <v>31</v>
       </c>
       <c r="B305" t="s">
-        <v>97</v>
+        <v>215</v>
       </c>
       <c r="C305" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -6412,10 +6415,10 @@
         <v>31</v>
       </c>
       <c r="B306" t="s">
-        <v>596</v>
+        <v>97</v>
       </c>
       <c r="C306" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -6423,10 +6426,10 @@
         <v>31</v>
       </c>
       <c r="B307" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C307" t="s">
-        <v>598</v>
+        <v>106</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -6434,10 +6437,10 @@
         <v>31</v>
       </c>
       <c r="B308" t="s">
-        <v>232</v>
+        <v>597</v>
       </c>
       <c r="C308" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -6445,10 +6448,10 @@
         <v>31</v>
       </c>
       <c r="B309" t="s">
-        <v>127</v>
+        <v>232</v>
       </c>
       <c r="C309" t="s">
-        <v>108</v>
+        <v>599</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -6456,10 +6459,10 @@
         <v>31</v>
       </c>
       <c r="B310" t="s">
-        <v>264</v>
+        <v>127</v>
       </c>
       <c r="C310" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -6467,10 +6470,10 @@
         <v>31</v>
       </c>
       <c r="B311" t="s">
-        <v>600</v>
+        <v>264</v>
       </c>
       <c r="C311" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -6478,10 +6481,10 @@
         <v>31</v>
       </c>
       <c r="B312" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C312" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -6489,10 +6492,10 @@
         <v>31</v>
       </c>
       <c r="B313" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C313" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -6500,10 +6503,10 @@
         <v>31</v>
       </c>
       <c r="B314" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C314" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -6511,10 +6514,10 @@
         <v>31</v>
       </c>
       <c r="B315" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C315" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -6522,10 +6525,10 @@
         <v>31</v>
       </c>
       <c r="B316" t="s">
-        <v>190</v>
+        <v>604</v>
       </c>
       <c r="C316" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -6533,10 +6536,10 @@
         <v>31</v>
       </c>
       <c r="B317" t="s">
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="C317" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -6544,10 +6547,10 @@
         <v>31</v>
       </c>
       <c r="B318" t="s">
-        <v>605</v>
+        <v>262</v>
       </c>
       <c r="C318" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -6555,10 +6558,10 @@
         <v>31</v>
       </c>
       <c r="B319" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C319" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -6566,10 +6569,10 @@
         <v>31</v>
       </c>
       <c r="B320" t="s">
-        <v>121</v>
+        <v>606</v>
       </c>
       <c r="C320" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -6577,10 +6580,10 @@
         <v>31</v>
       </c>
       <c r="B321" t="s">
-        <v>607</v>
+        <v>121</v>
       </c>
       <c r="C321" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -6588,10 +6591,10 @@
         <v>31</v>
       </c>
       <c r="B322" t="s">
-        <v>141</v>
+        <v>607</v>
       </c>
       <c r="C322" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -6599,10 +6602,10 @@
         <v>31</v>
       </c>
       <c r="B323" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C323" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -6610,10 +6613,10 @@
         <v>31</v>
       </c>
       <c r="B324" t="s">
-        <v>384</v>
+        <v>129</v>
       </c>
       <c r="C324" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -6621,10 +6624,10 @@
         <v>31</v>
       </c>
       <c r="B325" t="s">
-        <v>91</v>
+        <v>384</v>
       </c>
       <c r="C325" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -6632,10 +6635,10 @@
         <v>31</v>
       </c>
       <c r="B326" t="s">
-        <v>169</v>
+        <v>91</v>
       </c>
       <c r="C326" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -6643,10 +6646,10 @@
         <v>31</v>
       </c>
       <c r="B327" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C327" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -6654,10 +6657,10 @@
         <v>31</v>
       </c>
       <c r="B328" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="C328" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -6665,10 +6668,10 @@
         <v>31</v>
       </c>
       <c r="B329" t="s">
-        <v>608</v>
+        <v>137</v>
       </c>
       <c r="C329" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -6676,10 +6679,10 @@
         <v>31</v>
       </c>
       <c r="B330" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C330" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -6687,10 +6690,10 @@
         <v>31</v>
       </c>
       <c r="B331" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C331" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -6698,10 +6701,10 @@
         <v>31</v>
       </c>
       <c r="B332" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C332" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -6709,10 +6712,10 @@
         <v>31</v>
       </c>
       <c r="B333" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C333" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -6720,10 +6723,10 @@
         <v>31</v>
       </c>
       <c r="B334" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C334" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -6731,10 +6734,10 @@
         <v>31</v>
       </c>
       <c r="B335" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C335" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -6742,10 +6745,10 @@
         <v>31</v>
       </c>
       <c r="B336" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C336" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -6753,10 +6756,10 @@
         <v>31</v>
       </c>
       <c r="B337" t="s">
-        <v>477</v>
+        <v>615</v>
       </c>
       <c r="C337" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -6764,10 +6767,10 @@
         <v>31</v>
       </c>
       <c r="B338" t="s">
-        <v>616</v>
+        <v>477</v>
       </c>
       <c r="C338" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -6775,10 +6778,10 @@
         <v>31</v>
       </c>
       <c r="B339" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C339" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -6786,10 +6789,10 @@
         <v>31</v>
       </c>
       <c r="B340" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C340" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -6797,10 +6800,10 @@
         <v>31</v>
       </c>
       <c r="B341" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C341" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -6808,10 +6811,10 @@
         <v>31</v>
       </c>
       <c r="B342" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C342" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -6819,10 +6822,10 @@
         <v>31</v>
       </c>
       <c r="B343" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C343" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -6830,10 +6833,10 @@
         <v>31</v>
       </c>
       <c r="B344" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C344" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -6841,10 +6844,10 @@
         <v>31</v>
       </c>
       <c r="B345" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C345" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -6852,10 +6855,10 @@
         <v>31</v>
       </c>
       <c r="B346" t="s">
-        <v>251</v>
+        <v>623</v>
       </c>
       <c r="C346" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -6863,10 +6866,10 @@
         <v>31</v>
       </c>
       <c r="B347" t="s">
-        <v>99</v>
+        <v>251</v>
       </c>
       <c r="C347" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -6874,10 +6877,10 @@
         <v>31</v>
       </c>
       <c r="B348" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="C348" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -6885,10 +6888,10 @@
         <v>31</v>
       </c>
       <c r="B349" t="s">
-        <v>624</v>
+        <v>127</v>
       </c>
       <c r="C349" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -6896,10 +6899,10 @@
         <v>31</v>
       </c>
       <c r="B350" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C350" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -6907,10 +6910,10 @@
         <v>31</v>
       </c>
       <c r="B351" t="s">
-        <v>103</v>
+        <v>625</v>
       </c>
       <c r="C351" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -6918,10 +6921,10 @@
         <v>31</v>
       </c>
       <c r="B352" t="s">
-        <v>626</v>
+        <v>103</v>
       </c>
       <c r="C352" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -6929,10 +6932,10 @@
         <v>31</v>
       </c>
       <c r="B353" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C353" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -6940,10 +6943,10 @@
         <v>31</v>
       </c>
       <c r="B354" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C354" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -6951,10 +6954,10 @@
         <v>31</v>
       </c>
       <c r="B355" t="s">
-        <v>169</v>
+        <v>628</v>
       </c>
       <c r="C355" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -6962,10 +6965,10 @@
         <v>31</v>
       </c>
       <c r="B356" t="s">
-        <v>629</v>
+        <v>169</v>
       </c>
       <c r="C356" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -6973,10 +6976,10 @@
         <v>31</v>
       </c>
       <c r="B357" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C357" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -6984,10 +6987,10 @@
         <v>31</v>
       </c>
       <c r="B358" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C358" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -6995,10 +6998,10 @@
         <v>31</v>
       </c>
       <c r="B359" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C359" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -7006,10 +7009,10 @@
         <v>31</v>
       </c>
       <c r="B360" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C360" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -7017,10 +7020,10 @@
         <v>31</v>
       </c>
       <c r="B361" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C361" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -7028,10 +7031,10 @@
         <v>31</v>
       </c>
       <c r="B362" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C362" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -7039,10 +7042,10 @@
         <v>31</v>
       </c>
       <c r="B363" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C363" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -7050,10 +7053,10 @@
         <v>31</v>
       </c>
       <c r="B364" t="s">
-        <v>185</v>
+        <v>636</v>
       </c>
       <c r="C364" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -7061,10 +7064,10 @@
         <v>31</v>
       </c>
       <c r="B365" t="s">
-        <v>637</v>
+        <v>185</v>
       </c>
       <c r="C365" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -7072,10 +7075,10 @@
         <v>31</v>
       </c>
       <c r="B366" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C366" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -7083,10 +7086,10 @@
         <v>31</v>
       </c>
       <c r="B367" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C367" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -7094,10 +7097,10 @@
         <v>31</v>
       </c>
       <c r="B368" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C368" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -7105,10 +7108,10 @@
         <v>31</v>
       </c>
       <c r="B369" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C369" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -7116,10 +7119,10 @@
         <v>31</v>
       </c>
       <c r="B370" t="s">
-        <v>109</v>
+        <v>641</v>
       </c>
       <c r="C370" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -7127,10 +7130,10 @@
         <v>31</v>
       </c>
       <c r="B371" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="C371" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -7138,10 +7141,10 @@
         <v>31</v>
       </c>
       <c r="B372" t="s">
-        <v>642</v>
+        <v>198</v>
       </c>
       <c r="C372" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -7149,10 +7152,10 @@
         <v>31</v>
       </c>
       <c r="B373" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C373" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -7160,10 +7163,10 @@
         <v>31</v>
       </c>
       <c r="B374" t="s">
-        <v>202</v>
+        <v>643</v>
       </c>
       <c r="C374" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -7171,10 +7174,10 @@
         <v>31</v>
       </c>
       <c r="B375" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C375" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -7182,10 +7185,10 @@
         <v>31</v>
       </c>
       <c r="B376" t="s">
-        <v>644</v>
+        <v>204</v>
       </c>
       <c r="C376" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -7193,10 +7196,10 @@
         <v>31</v>
       </c>
       <c r="B377" t="s">
-        <v>206</v>
+        <v>644</v>
       </c>
       <c r="C377" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -7204,10 +7207,10 @@
         <v>31</v>
       </c>
       <c r="B378" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="C378" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -7215,10 +7218,10 @@
         <v>31</v>
       </c>
       <c r="B379" t="s">
-        <v>368</v>
+        <v>173</v>
       </c>
       <c r="C379" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -7226,10 +7229,10 @@
         <v>31</v>
       </c>
       <c r="B380" t="s">
-        <v>151</v>
+        <v>368</v>
       </c>
       <c r="C380" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -7237,10 +7240,10 @@
         <v>31</v>
       </c>
       <c r="B381" t="s">
-        <v>645</v>
+        <v>151</v>
       </c>
       <c r="C381" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -7248,10 +7251,10 @@
         <v>31</v>
       </c>
       <c r="B382" t="s">
-        <v>426</v>
+        <v>645</v>
       </c>
       <c r="C382" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -7259,10 +7262,10 @@
         <v>31</v>
       </c>
       <c r="B383" t="s">
-        <v>646</v>
+        <v>426</v>
       </c>
       <c r="C383" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -7270,10 +7273,10 @@
         <v>31</v>
       </c>
       <c r="B384" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C384" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -7281,10 +7284,10 @@
         <v>31</v>
       </c>
       <c r="B385" t="s">
-        <v>113</v>
+        <v>647</v>
       </c>
       <c r="C385" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -7292,10 +7295,10 @@
         <v>31</v>
       </c>
       <c r="B386" t="s">
-        <v>241</v>
+        <v>113</v>
       </c>
       <c r="C386" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -7303,10 +7306,10 @@
         <v>31</v>
       </c>
       <c r="B387" t="s">
-        <v>167</v>
+        <v>241</v>
       </c>
       <c r="C387" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -7314,10 +7317,10 @@
         <v>31</v>
       </c>
       <c r="B388" t="s">
-        <v>648</v>
+        <v>167</v>
       </c>
       <c r="C388" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -7325,10 +7328,10 @@
         <v>31</v>
       </c>
       <c r="B389" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C389" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -7336,10 +7339,10 @@
         <v>31</v>
       </c>
       <c r="B390" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C390" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -7347,10 +7350,10 @@
         <v>31</v>
       </c>
       <c r="B391" t="s">
-        <v>247</v>
+        <v>650</v>
       </c>
       <c r="C391" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -7358,10 +7361,10 @@
         <v>31</v>
       </c>
       <c r="B392" t="s">
-        <v>651</v>
+        <v>247</v>
       </c>
       <c r="C392" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -7369,10 +7372,10 @@
         <v>31</v>
       </c>
       <c r="B393" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C393" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -7380,10 +7383,10 @@
         <v>31</v>
       </c>
       <c r="B394" t="s">
-        <v>131</v>
+        <v>652</v>
       </c>
       <c r="C394" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -7391,10 +7394,10 @@
         <v>31</v>
       </c>
       <c r="B395" t="s">
-        <v>653</v>
+        <v>131</v>
       </c>
       <c r="C395" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -7402,10 +7405,10 @@
         <v>31</v>
       </c>
       <c r="B396" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C396" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -7413,10 +7416,10 @@
         <v>31</v>
       </c>
       <c r="B397" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C397" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -7424,10 +7427,10 @@
         <v>31</v>
       </c>
       <c r="B398" t="s">
-        <v>228</v>
+        <v>655</v>
       </c>
       <c r="C398" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -7435,10 +7438,10 @@
         <v>31</v>
       </c>
       <c r="B399" t="s">
-        <v>656</v>
+        <v>228</v>
       </c>
       <c r="C399" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -7446,10 +7449,10 @@
         <v>31</v>
       </c>
       <c r="B400" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C400" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -7457,10 +7460,10 @@
         <v>31</v>
       </c>
       <c r="B401" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C401" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -7468,10 +7471,10 @@
         <v>31</v>
       </c>
       <c r="B402" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C402" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -7479,10 +7482,10 @@
         <v>31</v>
       </c>
       <c r="B403" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="C403" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -7490,10 +7493,10 @@
         <v>31</v>
       </c>
       <c r="B404" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="C404" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -7501,10 +7504,10 @@
         <v>31</v>
       </c>
       <c r="B405" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C405" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -7512,10 +7515,10 @@
         <v>31</v>
       </c>
       <c r="B406" t="s">
-        <v>370</v>
+        <v>661</v>
       </c>
       <c r="C406" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -7523,10 +7526,10 @@
         <v>31</v>
       </c>
       <c r="B407" t="s">
-        <v>243</v>
+        <v>370</v>
       </c>
       <c r="C407" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -7534,10 +7537,10 @@
         <v>31</v>
       </c>
       <c r="B408" t="s">
-        <v>662</v>
+        <v>243</v>
       </c>
       <c r="C408" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -7545,10 +7548,10 @@
         <v>31</v>
       </c>
       <c r="B409" t="s">
-        <v>430</v>
+        <v>662</v>
       </c>
       <c r="C409" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -7556,10 +7559,10 @@
         <v>31</v>
       </c>
       <c r="B410" t="s">
-        <v>663</v>
+        <v>430</v>
       </c>
       <c r="C410" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -7567,10 +7570,10 @@
         <v>31</v>
       </c>
       <c r="B411" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C411" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -7578,10 +7581,10 @@
         <v>31</v>
       </c>
       <c r="B412" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C412" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -7589,10 +7592,10 @@
         <v>31</v>
       </c>
       <c r="B413" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C413" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -7600,10 +7603,10 @@
         <v>31</v>
       </c>
       <c r="B414" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C414" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -7611,10 +7614,10 @@
         <v>31</v>
       </c>
       <c r="B415" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C415" t="s">
-        <v>669</v>
+        <v>319</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -7622,10 +7625,10 @@
         <v>31</v>
       </c>
       <c r="B416" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C416" t="s">
-        <v>321</v>
+        <v>669</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -7633,10 +7636,10 @@
         <v>31</v>
       </c>
       <c r="B417" t="s">
-        <v>239</v>
+        <v>670</v>
       </c>
       <c r="C417" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -7644,10 +7647,10 @@
         <v>31</v>
       </c>
       <c r="B418" t="s">
-        <v>671</v>
+        <v>239</v>
       </c>
       <c r="C418" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -7655,10 +7658,10 @@
         <v>31</v>
       </c>
       <c r="B419" t="s">
-        <v>157</v>
+        <v>671</v>
       </c>
       <c r="C419" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -7666,10 +7669,10 @@
         <v>31</v>
       </c>
       <c r="B420" t="s">
-        <v>672</v>
+        <v>157</v>
       </c>
       <c r="C420" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -7677,10 +7680,10 @@
         <v>31</v>
       </c>
       <c r="B421" t="s">
-        <v>266</v>
+        <v>672</v>
       </c>
       <c r="C421" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -7688,10 +7691,10 @@
         <v>31</v>
       </c>
       <c r="B422" t="s">
-        <v>673</v>
+        <v>266</v>
       </c>
       <c r="C422" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -7699,10 +7702,10 @@
         <v>31</v>
       </c>
       <c r="B423" t="s">
-        <v>230</v>
+        <v>673</v>
       </c>
       <c r="C423" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -7710,10 +7713,10 @@
         <v>31</v>
       </c>
       <c r="B424" t="s">
-        <v>674</v>
+        <v>230</v>
       </c>
       <c r="C424" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -7721,10 +7724,10 @@
         <v>31</v>
       </c>
       <c r="B425" t="s">
-        <v>268</v>
+        <v>674</v>
       </c>
       <c r="C425" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -7732,10 +7735,10 @@
         <v>31</v>
       </c>
       <c r="B426" t="s">
-        <v>675</v>
+        <v>268</v>
       </c>
       <c r="C426" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -7743,10 +7746,10 @@
         <v>31</v>
       </c>
       <c r="B427" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C427" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -7754,10 +7757,10 @@
         <v>31</v>
       </c>
       <c r="B428" t="s">
-        <v>274</v>
+        <v>676</v>
       </c>
       <c r="C428" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
@@ -7765,10 +7768,10 @@
         <v>31</v>
       </c>
       <c r="B429" t="s">
-        <v>677</v>
+        <v>274</v>
       </c>
       <c r="C429" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
@@ -7776,10 +7779,10 @@
         <v>31</v>
       </c>
       <c r="B430" t="s">
-        <v>278</v>
+        <v>677</v>
       </c>
       <c r="C430" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -7787,10 +7790,10 @@
         <v>31</v>
       </c>
       <c r="B431" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C431" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -7798,10 +7801,10 @@
         <v>31</v>
       </c>
       <c r="B432" t="s">
-        <v>678</v>
+        <v>280</v>
       </c>
       <c r="C432" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -7809,10 +7812,10 @@
         <v>31</v>
       </c>
       <c r="B433" t="s">
-        <v>284</v>
+        <v>678</v>
       </c>
       <c r="C433" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -7820,10 +7823,10 @@
         <v>31</v>
       </c>
       <c r="B434" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C434" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
@@ -7831,10 +7834,10 @@
         <v>31</v>
       </c>
       <c r="B435" t="s">
-        <v>679</v>
+        <v>286</v>
       </c>
       <c r="C435" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
@@ -7842,10 +7845,10 @@
         <v>31</v>
       </c>
       <c r="B436" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C436" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
@@ -7853,10 +7856,10 @@
         <v>31</v>
       </c>
       <c r="B437" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C437" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -7864,10 +7867,10 @@
         <v>31</v>
       </c>
       <c r="B438" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C438" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
@@ -7875,10 +7878,10 @@
         <v>31</v>
       </c>
       <c r="B439" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C439" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
@@ -7886,10 +7889,10 @@
         <v>31</v>
       </c>
       <c r="B440" t="s">
-        <v>290</v>
+        <v>683</v>
       </c>
       <c r="C440" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
@@ -7897,10 +7900,10 @@
         <v>31</v>
       </c>
       <c r="B441" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C441" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
@@ -7908,10 +7911,10 @@
         <v>31</v>
       </c>
       <c r="B442" t="s">
-        <v>684</v>
+        <v>292</v>
       </c>
       <c r="C442" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
@@ -7919,10 +7922,10 @@
         <v>31</v>
       </c>
       <c r="B443" t="s">
-        <v>326</v>
+        <v>684</v>
       </c>
       <c r="C443" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -7930,10 +7933,10 @@
         <v>31</v>
       </c>
       <c r="B444" t="s">
-        <v>685</v>
+        <v>326</v>
       </c>
       <c r="C444" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
@@ -7941,10 +7944,10 @@
         <v>31</v>
       </c>
       <c r="B445" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C445" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
@@ -7952,10 +7955,10 @@
         <v>31</v>
       </c>
       <c r="B446" t="s">
-        <v>296</v>
+        <v>686</v>
       </c>
       <c r="C446" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
@@ -7963,10 +7966,10 @@
         <v>31</v>
       </c>
       <c r="B447" t="s">
-        <v>687</v>
+        <v>296</v>
       </c>
       <c r="C447" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -7974,10 +7977,10 @@
         <v>31</v>
       </c>
       <c r="B448" t="s">
-        <v>298</v>
+        <v>687</v>
       </c>
       <c r="C448" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -7985,10 +7988,10 @@
         <v>31</v>
       </c>
       <c r="B449" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C449" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -7996,10 +7999,10 @@
         <v>31</v>
       </c>
       <c r="B450" t="s">
-        <v>688</v>
+        <v>300</v>
       </c>
       <c r="C450" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
@@ -8007,10 +8010,10 @@
         <v>31</v>
       </c>
       <c r="B451" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C451" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -8018,10 +8021,10 @@
         <v>31</v>
       </c>
       <c r="B452" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C452" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -8029,10 +8032,10 @@
         <v>31</v>
       </c>
       <c r="B453" t="s">
-        <v>302</v>
+        <v>690</v>
       </c>
       <c r="C453" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
@@ -8040,10 +8043,10 @@
         <v>31</v>
       </c>
       <c r="B454" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="C454" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
@@ -8051,10 +8054,10 @@
         <v>31</v>
       </c>
       <c r="B455" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="C455" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
@@ -8062,10 +8065,10 @@
         <v>31</v>
       </c>
       <c r="B456" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C456" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -8073,10 +8076,10 @@
         <v>31</v>
       </c>
       <c r="B457" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C457" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
@@ -8084,10 +8087,10 @@
         <v>31</v>
       </c>
       <c r="B458" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C458" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
@@ -8095,10 +8098,10 @@
         <v>31</v>
       </c>
       <c r="B459" t="s">
-        <v>691</v>
+        <v>310</v>
       </c>
       <c r="C459" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -8106,10 +8109,10 @@
         <v>31</v>
       </c>
       <c r="B460" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C460" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
@@ -8117,10 +8120,10 @@
         <v>31</v>
       </c>
       <c r="B461" t="s">
-        <v>312</v>
+        <v>692</v>
       </c>
       <c r="C461" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
@@ -8128,10 +8131,10 @@
         <v>31</v>
       </c>
       <c r="B462" t="s">
-        <v>693</v>
+        <v>312</v>
       </c>
       <c r="C462" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
@@ -8139,10 +8142,10 @@
         <v>31</v>
       </c>
       <c r="B463" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C463" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
@@ -8150,10 +8153,10 @@
         <v>31</v>
       </c>
       <c r="B464" t="s">
-        <v>257</v>
+        <v>694</v>
       </c>
       <c r="C464" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
@@ -8161,10 +8164,10 @@
         <v>31</v>
       </c>
       <c r="B465" t="s">
-        <v>695</v>
+        <v>257</v>
       </c>
       <c r="C465" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
@@ -8172,10 +8175,10 @@
         <v>31</v>
       </c>
       <c r="B466" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C466" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
@@ -8183,10 +8186,10 @@
         <v>31</v>
       </c>
       <c r="B467" t="s">
-        <v>155</v>
+        <v>696</v>
       </c>
       <c r="C467" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
@@ -8194,10 +8197,10 @@
         <v>31</v>
       </c>
       <c r="B468" t="s">
-        <v>697</v>
+        <v>155</v>
       </c>
       <c r="C468" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
@@ -8205,10 +8208,10 @@
         <v>31</v>
       </c>
       <c r="B469" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C469" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
@@ -8216,10 +8219,10 @@
         <v>31</v>
       </c>
       <c r="B470" t="s">
-        <v>553</v>
+        <v>698</v>
       </c>
       <c r="C470" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
@@ -8227,10 +8230,10 @@
         <v>31</v>
       </c>
       <c r="B471" t="s">
-        <v>699</v>
+        <v>553</v>
       </c>
       <c r="C471" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
@@ -8238,10 +8241,10 @@
         <v>31</v>
       </c>
       <c r="B472" t="s">
-        <v>320</v>
+        <v>699</v>
       </c>
       <c r="C472" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
@@ -8249,10 +8252,10 @@
         <v>31</v>
       </c>
       <c r="B473" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C473" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
@@ -8260,10 +8263,10 @@
         <v>31</v>
       </c>
       <c r="B474" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C474" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
@@ -8271,10 +8274,10 @@
         <v>31</v>
       </c>
       <c r="B475" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C475" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
@@ -8282,10 +8285,10 @@
         <v>31</v>
       </c>
       <c r="B476" t="s">
-        <v>700</v>
+        <v>330</v>
       </c>
       <c r="C476" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
@@ -8293,10 +8296,10 @@
         <v>31</v>
       </c>
       <c r="B477" t="s">
-        <v>334</v>
+        <v>700</v>
       </c>
       <c r="C477" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
@@ -8304,10 +8307,10 @@
         <v>31</v>
       </c>
       <c r="B478" t="s">
-        <v>701</v>
+        <v>334</v>
       </c>
       <c r="C478" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
@@ -8315,10 +8318,10 @@
         <v>31</v>
       </c>
       <c r="B479" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C479" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
@@ -8326,10 +8329,10 @@
         <v>31</v>
       </c>
       <c r="B480" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C480" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
@@ -8337,10 +8340,10 @@
         <v>31</v>
       </c>
       <c r="B481" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C481" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
@@ -8348,10 +8351,10 @@
         <v>31</v>
       </c>
       <c r="B482" t="s">
-        <v>338</v>
+        <v>704</v>
       </c>
       <c r="C482" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
@@ -8359,10 +8362,10 @@
         <v>31</v>
       </c>
       <c r="B483" t="s">
-        <v>194</v>
+        <v>338</v>
       </c>
       <c r="C483" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
@@ -8370,10 +8373,10 @@
         <v>31</v>
       </c>
       <c r="B484" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C484" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
@@ -8381,10 +8384,10 @@
         <v>31</v>
       </c>
       <c r="B485" t="s">
-        <v>340</v>
+        <v>196</v>
       </c>
       <c r="C485" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
@@ -8392,10 +8395,10 @@
         <v>31</v>
       </c>
       <c r="B486" t="s">
-        <v>705</v>
+        <v>340</v>
       </c>
       <c r="C486" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
@@ -8403,10 +8406,10 @@
         <v>31</v>
       </c>
       <c r="B487" t="s">
-        <v>342</v>
+        <v>705</v>
       </c>
       <c r="C487" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
@@ -8414,10 +8417,10 @@
         <v>31</v>
       </c>
       <c r="B488" t="s">
-        <v>125</v>
+        <v>342</v>
       </c>
       <c r="C488" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
@@ -8425,10 +8428,10 @@
         <v>31</v>
       </c>
       <c r="B489" t="s">
-        <v>344</v>
+        <v>125</v>
       </c>
       <c r="C489" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
@@ -8436,10 +8439,10 @@
         <v>31</v>
       </c>
       <c r="B490" t="s">
-        <v>706</v>
+        <v>344</v>
       </c>
       <c r="C490" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
@@ -8447,10 +8450,10 @@
         <v>31</v>
       </c>
       <c r="B491" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C491" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
@@ -8458,10 +8461,10 @@
         <v>31</v>
       </c>
       <c r="B492" t="s">
-        <v>348</v>
+        <v>707</v>
       </c>
       <c r="C492" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
@@ -8469,10 +8472,10 @@
         <v>31</v>
       </c>
       <c r="B493" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C493" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
@@ -8480,10 +8483,10 @@
         <v>31</v>
       </c>
       <c r="B494" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C494" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
@@ -8491,10 +8494,10 @@
         <v>31</v>
       </c>
       <c r="B495" t="s">
-        <v>708</v>
+        <v>354</v>
       </c>
       <c r="C495" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
@@ -8502,10 +8505,10 @@
         <v>31</v>
       </c>
       <c r="B496" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C496" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
@@ -8513,10 +8516,10 @@
         <v>31</v>
       </c>
       <c r="B497" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C497" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
@@ -8524,10 +8527,10 @@
         <v>31</v>
       </c>
       <c r="B498" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C498" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
@@ -8535,10 +8538,10 @@
         <v>31</v>
       </c>
       <c r="B499" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C499" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
@@ -8546,10 +8549,10 @@
         <v>31</v>
       </c>
       <c r="B500" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C500" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -8557,10 +8560,10 @@
         <v>31</v>
       </c>
       <c r="B501" t="s">
-        <v>358</v>
+        <v>713</v>
       </c>
       <c r="C501" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
@@ -8568,10 +8571,10 @@
         <v>31</v>
       </c>
       <c r="B502" t="s">
-        <v>714</v>
+        <v>358</v>
       </c>
       <c r="C502" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
@@ -8579,10 +8582,10 @@
         <v>31</v>
       </c>
       <c r="B503" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C503" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
@@ -8590,10 +8593,10 @@
         <v>31</v>
       </c>
       <c r="B504" t="s">
-        <v>362</v>
+        <v>715</v>
       </c>
       <c r="C504" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
@@ -8601,10 +8604,10 @@
         <v>31</v>
       </c>
       <c r="B505" t="s">
-        <v>716</v>
+        <v>362</v>
       </c>
       <c r="C505" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
@@ -8612,10 +8615,10 @@
         <v>31</v>
       </c>
       <c r="B506" t="s">
-        <v>364</v>
+        <v>716</v>
       </c>
       <c r="C506" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
@@ -8623,10 +8626,10 @@
         <v>31</v>
       </c>
       <c r="B507" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C507" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
@@ -8634,10 +8637,10 @@
         <v>31</v>
       </c>
       <c r="B508" t="s">
-        <v>717</v>
+        <v>366</v>
       </c>
       <c r="C508" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
@@ -8645,10 +8648,10 @@
         <v>31</v>
       </c>
       <c r="B509" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C509" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
@@ -8656,10 +8659,10 @@
         <v>31</v>
       </c>
       <c r="B510" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C510" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
@@ -8667,10 +8670,10 @@
         <v>31</v>
       </c>
       <c r="B511" t="s">
-        <v>181</v>
+        <v>719</v>
       </c>
       <c r="C511" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
@@ -8678,10 +8681,10 @@
         <v>31</v>
       </c>
       <c r="B512" t="s">
-        <v>720</v>
+        <v>181</v>
       </c>
       <c r="C512" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
@@ -8689,10 +8692,10 @@
         <v>31</v>
       </c>
       <c r="B513" t="s">
-        <v>374</v>
+        <v>720</v>
       </c>
       <c r="C513" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
@@ -8700,10 +8703,10 @@
         <v>31</v>
       </c>
       <c r="B514" t="s">
-        <v>721</v>
+        <v>374</v>
       </c>
       <c r="C514" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
@@ -8711,10 +8714,10 @@
         <v>31</v>
       </c>
       <c r="B515" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C515" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
@@ -8722,10 +8725,10 @@
         <v>31</v>
       </c>
       <c r="B516" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C516" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
@@ -8733,10 +8736,10 @@
         <v>31</v>
       </c>
       <c r="B517" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C517" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
@@ -8744,10 +8747,10 @@
         <v>31</v>
       </c>
       <c r="B518" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C518" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
@@ -8755,10 +8758,10 @@
         <v>31</v>
       </c>
       <c r="B519" t="s">
-        <v>376</v>
+        <v>725</v>
       </c>
       <c r="C519" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
@@ -8766,10 +8769,10 @@
         <v>31</v>
       </c>
       <c r="B520" t="s">
-        <v>726</v>
+        <v>376</v>
       </c>
       <c r="C520" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
@@ -8777,10 +8780,10 @@
         <v>31</v>
       </c>
       <c r="B521" t="s">
-        <v>378</v>
+        <v>726</v>
       </c>
       <c r="C521" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
@@ -8788,10 +8791,10 @@
         <v>31</v>
       </c>
       <c r="B522" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C522" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
@@ -8799,10 +8802,10 @@
         <v>31</v>
       </c>
       <c r="B523" t="s">
-        <v>727</v>
+        <v>380</v>
       </c>
       <c r="C523" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
@@ -8810,10 +8813,10 @@
         <v>31</v>
       </c>
       <c r="B524" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C524" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
@@ -8821,10 +8824,10 @@
         <v>31</v>
       </c>
       <c r="B525" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C525" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
@@ -8832,10 +8835,10 @@
         <v>31</v>
       </c>
       <c r="B526" t="s">
-        <v>386</v>
+        <v>729</v>
       </c>
       <c r="C526" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
@@ -8843,10 +8846,10 @@
         <v>31</v>
       </c>
       <c r="B527" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C527" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
@@ -8854,10 +8857,10 @@
         <v>31</v>
       </c>
       <c r="B528" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C528" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
@@ -8865,10 +8868,10 @@
         <v>31</v>
       </c>
       <c r="B529" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C529" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
@@ -8876,10 +8879,10 @@
         <v>31</v>
       </c>
       <c r="B530" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C530" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
@@ -8887,10 +8890,10 @@
         <v>31</v>
       </c>
       <c r="B531" t="s">
-        <v>483</v>
+        <v>394</v>
       </c>
       <c r="C531" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
@@ -8898,10 +8901,10 @@
         <v>31</v>
       </c>
       <c r="B532" t="s">
-        <v>730</v>
+        <v>483</v>
       </c>
       <c r="C532" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
@@ -8909,10 +8912,10 @@
         <v>31</v>
       </c>
       <c r="B533" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C533" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
@@ -8920,10 +8923,10 @@
         <v>31</v>
       </c>
       <c r="B534" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C534" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
@@ -8931,10 +8934,10 @@
         <v>31</v>
       </c>
       <c r="B535" t="s">
-        <v>398</v>
+        <v>732</v>
       </c>
       <c r="C535" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
@@ -8942,10 +8945,10 @@
         <v>31</v>
       </c>
       <c r="B536" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C536" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
@@ -8953,10 +8956,10 @@
         <v>31</v>
       </c>
       <c r="B537" t="s">
-        <v>733</v>
+        <v>400</v>
       </c>
       <c r="C537" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
@@ -8964,10 +8967,10 @@
         <v>31</v>
       </c>
       <c r="B538" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C538" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
@@ -8975,10 +8978,10 @@
         <v>31</v>
       </c>
       <c r="B539" t="s">
-        <v>105</v>
+        <v>734</v>
       </c>
       <c r="C539" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
@@ -8986,10 +8989,10 @@
         <v>31</v>
       </c>
       <c r="B540" t="s">
-        <v>735</v>
+        <v>105</v>
       </c>
       <c r="C540" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
@@ -8997,10 +9000,10 @@
         <v>31</v>
       </c>
       <c r="B541" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C541" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
@@ -9008,10 +9011,10 @@
         <v>31</v>
       </c>
       <c r="B542" t="s">
-        <v>402</v>
+        <v>736</v>
       </c>
       <c r="C542" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
@@ -9019,10 +9022,10 @@
         <v>31</v>
       </c>
       <c r="B543" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C543" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
@@ -9030,10 +9033,10 @@
         <v>31</v>
       </c>
       <c r="B544" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C544" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
@@ -9041,10 +9044,10 @@
         <v>31</v>
       </c>
       <c r="B545" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C545" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
@@ -9052,10 +9055,10 @@
         <v>31</v>
       </c>
       <c r="B546" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C546" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
@@ -9063,10 +9066,10 @@
         <v>31</v>
       </c>
       <c r="B547" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C547" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
@@ -9074,10 +9077,10 @@
         <v>31</v>
       </c>
       <c r="B548" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C548" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
@@ -9085,10 +9088,10 @@
         <v>31</v>
       </c>
       <c r="B549" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C549" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
@@ -9096,10 +9099,10 @@
         <v>31</v>
       </c>
       <c r="B550" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C550" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
@@ -9107,10 +9110,10 @@
         <v>31</v>
       </c>
       <c r="B551" t="s">
-        <v>737</v>
+        <v>418</v>
       </c>
       <c r="C551" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
@@ -9118,10 +9121,10 @@
         <v>31</v>
       </c>
       <c r="B552" t="s">
-        <v>422</v>
+        <v>737</v>
       </c>
       <c r="C552" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
@@ -9129,10 +9132,10 @@
         <v>31</v>
       </c>
       <c r="B553" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C553" t="s">
-        <v>738</v>
+        <v>593</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
@@ -9140,10 +9143,10 @@
         <v>31</v>
       </c>
       <c r="B554" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C554" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
@@ -9151,10 +9154,10 @@
         <v>31</v>
       </c>
       <c r="B555" t="s">
-        <v>740</v>
+        <v>426</v>
       </c>
       <c r="C555" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
@@ -9162,10 +9165,10 @@
         <v>31</v>
       </c>
       <c r="B556" t="s">
-        <v>428</v>
+        <v>740</v>
       </c>
       <c r="C556" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
@@ -9173,10 +9176,10 @@
         <v>31</v>
       </c>
       <c r="B557" t="s">
-        <v>743</v>
+        <v>428</v>
       </c>
       <c r="C557" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
@@ -9184,10 +9187,10 @@
         <v>31</v>
       </c>
       <c r="B558" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C558" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
@@ -9195,10 +9198,10 @@
         <v>31</v>
       </c>
       <c r="B559" t="s">
-        <v>432</v>
+        <v>745</v>
       </c>
       <c r="C559" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
@@ -9206,10 +9209,10 @@
         <v>31</v>
       </c>
       <c r="B560" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C560" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
@@ -9217,10 +9220,10 @@
         <v>31</v>
       </c>
       <c r="B561" t="s">
-        <v>749</v>
+        <v>434</v>
       </c>
       <c r="C561" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
@@ -9228,10 +9231,10 @@
         <v>31</v>
       </c>
       <c r="B562" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C562" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
@@ -9239,10 +9242,10 @@
         <v>31</v>
       </c>
       <c r="B563" t="s">
-        <v>438</v>
+        <v>751</v>
       </c>
       <c r="C563" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
@@ -9250,10 +9253,10 @@
         <v>31</v>
       </c>
       <c r="B564" t="s">
-        <v>754</v>
+        <v>438</v>
       </c>
       <c r="C564" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
@@ -9261,10 +9264,10 @@
         <v>31</v>
       </c>
       <c r="B565" t="s">
-        <v>440</v>
+        <v>754</v>
       </c>
       <c r="C565" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
@@ -9272,10 +9275,10 @@
         <v>31</v>
       </c>
       <c r="B566" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C566" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
@@ -9283,10 +9286,10 @@
         <v>31</v>
       </c>
       <c r="B567" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C567" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
@@ -9294,10 +9297,10 @@
         <v>31</v>
       </c>
       <c r="B568" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C568" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
@@ -9305,10 +9308,10 @@
         <v>31</v>
       </c>
       <c r="B569" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C569" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
@@ -9316,10 +9319,10 @@
         <v>31</v>
       </c>
       <c r="B570" t="s">
-        <v>761</v>
+        <v>448</v>
       </c>
       <c r="C570" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
@@ -9327,10 +9330,10 @@
         <v>31</v>
       </c>
       <c r="B571" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C571" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
@@ -9338,10 +9341,10 @@
         <v>31</v>
       </c>
       <c r="B572" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C572" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
@@ -9349,10 +9352,10 @@
         <v>31</v>
       </c>
       <c r="B573" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C573" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
@@ -9360,10 +9363,10 @@
         <v>31</v>
       </c>
       <c r="B574" t="s">
-        <v>716</v>
+        <v>767</v>
       </c>
       <c r="C574" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
@@ -9371,10 +9374,10 @@
         <v>31</v>
       </c>
       <c r="B575" t="s">
-        <v>770</v>
+        <v>716</v>
       </c>
       <c r="C575" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
@@ -9382,10 +9385,10 @@
         <v>31</v>
       </c>
       <c r="B576" t="s">
-        <v>452</v>
+        <v>770</v>
       </c>
       <c r="C576" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
@@ -9393,10 +9396,10 @@
         <v>31</v>
       </c>
       <c r="B577" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C577" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
@@ -9404,10 +9407,10 @@
         <v>31</v>
       </c>
       <c r="B578" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C578" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
@@ -9415,10 +9418,10 @@
         <v>31</v>
       </c>
       <c r="B579" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C579" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
@@ -9426,10 +9429,10 @@
         <v>31</v>
       </c>
       <c r="B580" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C580" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
@@ -9437,10 +9440,10 @@
         <v>31</v>
       </c>
       <c r="B581" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C581" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
@@ -9448,10 +9451,10 @@
         <v>31</v>
       </c>
       <c r="B582" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C582" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
@@ -9459,10 +9462,10 @@
         <v>31</v>
       </c>
       <c r="B583" t="s">
-        <v>298</v>
+        <v>464</v>
       </c>
       <c r="C583" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
@@ -9470,10 +9473,10 @@
         <v>31</v>
       </c>
       <c r="B584" t="s">
-        <v>467</v>
+        <v>298</v>
       </c>
       <c r="C584" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
@@ -9481,10 +9484,10 @@
         <v>31</v>
       </c>
       <c r="B585" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C585" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
@@ -9492,10 +9495,10 @@
         <v>31</v>
       </c>
       <c r="B586" t="s">
-        <v>314</v>
+        <v>469</v>
       </c>
       <c r="C586" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
@@ -9503,10 +9506,10 @@
         <v>31</v>
       </c>
       <c r="B587" t="s">
-        <v>471</v>
+        <v>314</v>
       </c>
       <c r="C587" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
@@ -9514,10 +9517,10 @@
         <v>31</v>
       </c>
       <c r="B588" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C588" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
@@ -9525,10 +9528,10 @@
         <v>31</v>
       </c>
       <c r="B589" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C589" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
@@ -9536,10 +9539,10 @@
         <v>31</v>
       </c>
       <c r="B590" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C590" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
@@ -9547,10 +9550,10 @@
         <v>31</v>
       </c>
       <c r="B591" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C591" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
@@ -9558,10 +9561,10 @@
         <v>31</v>
       </c>
       <c r="B592" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C592" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
@@ -9569,10 +9572,10 @@
         <v>31</v>
       </c>
       <c r="B593" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C593" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
@@ -9580,10 +9583,10 @@
         <v>31</v>
       </c>
       <c r="B594" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C594" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
@@ -9591,10 +9594,10 @@
         <v>31</v>
       </c>
       <c r="B595" t="s">
-        <v>791</v>
+        <v>485</v>
       </c>
       <c r="C595" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
@@ -9602,10 +9605,10 @@
         <v>31</v>
       </c>
       <c r="B596" t="s">
-        <v>487</v>
+        <v>791</v>
       </c>
       <c r="C596" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
@@ -9613,10 +9616,10 @@
         <v>31</v>
       </c>
       <c r="B597" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C597" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
@@ -9624,10 +9627,10 @@
         <v>31</v>
       </c>
       <c r="B598" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C598" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
@@ -9635,10 +9638,10 @@
         <v>31</v>
       </c>
       <c r="B599" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C599" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
@@ -9646,10 +9649,10 @@
         <v>31</v>
       </c>
       <c r="B600" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C600" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
@@ -9657,10 +9660,10 @@
         <v>31</v>
       </c>
       <c r="B601" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C601" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
@@ -9668,10 +9671,10 @@
         <v>31</v>
       </c>
       <c r="B602" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C602" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
@@ -9679,10 +9682,10 @@
         <v>31</v>
       </c>
       <c r="B603" t="s">
-        <v>800</v>
+        <v>501</v>
       </c>
       <c r="C603" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
@@ -9690,10 +9693,10 @@
         <v>31</v>
       </c>
       <c r="B604" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C604" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
@@ -9701,10 +9704,10 @@
         <v>31</v>
       </c>
       <c r="B605" t="s">
-        <v>503</v>
+        <v>802</v>
       </c>
       <c r="C605" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
@@ -9712,10 +9715,10 @@
         <v>31</v>
       </c>
       <c r="B606" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C606" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
@@ -9723,10 +9726,10 @@
         <v>31</v>
       </c>
       <c r="B607" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C607" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
@@ -9734,10 +9737,10 @@
         <v>31</v>
       </c>
       <c r="B608" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C608" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
@@ -9745,10 +9748,10 @@
         <v>31</v>
       </c>
       <c r="B609" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C609" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
@@ -9756,10 +9759,10 @@
         <v>31</v>
       </c>
       <c r="B610" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C610" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
@@ -9767,10 +9770,10 @@
         <v>31</v>
       </c>
       <c r="B611" t="s">
-        <v>810</v>
+        <v>513</v>
       </c>
       <c r="C611" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
@@ -9778,10 +9781,10 @@
         <v>31</v>
       </c>
       <c r="B612" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C612" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
@@ -9789,10 +9792,10 @@
         <v>31</v>
       </c>
       <c r="B613" t="s">
-        <v>515</v>
+        <v>812</v>
       </c>
       <c r="C613" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
@@ -9800,10 +9803,10 @@
         <v>31</v>
       </c>
       <c r="B614" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C614" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
@@ -9811,10 +9814,10 @@
         <v>31</v>
       </c>
       <c r="B615" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C615" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
@@ -9822,10 +9825,10 @@
         <v>31</v>
       </c>
       <c r="B616" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C616" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
@@ -9833,10 +9836,10 @@
         <v>31</v>
       </c>
       <c r="B617" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C617" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
@@ -9844,10 +9847,10 @@
         <v>31</v>
       </c>
       <c r="B618" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C618" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
@@ -9855,10 +9858,10 @@
         <v>31</v>
       </c>
       <c r="B619" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C619" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
@@ -9866,10 +9869,10 @@
         <v>31</v>
       </c>
       <c r="B620" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C620" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
@@ -9877,10 +9880,10 @@
         <v>31</v>
       </c>
       <c r="B621" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C621" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
@@ -9888,10 +9891,10 @@
         <v>31</v>
       </c>
       <c r="B622" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C622" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
@@ -9899,10 +9902,10 @@
         <v>31</v>
       </c>
       <c r="B623" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C623" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
@@ -9910,10 +9913,10 @@
         <v>31</v>
       </c>
       <c r="B624" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C624" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.25">
@@ -9921,10 +9924,10 @@
         <v>31</v>
       </c>
       <c r="B625" t="s">
-        <v>259</v>
+        <v>537</v>
       </c>
       <c r="C625" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
@@ -9932,10 +9935,10 @@
         <v>31</v>
       </c>
       <c r="B626" t="s">
-        <v>539</v>
+        <v>259</v>
       </c>
       <c r="C626" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
@@ -9943,10 +9946,10 @@
         <v>31</v>
       </c>
       <c r="B627" t="s">
-        <v>828</v>
+        <v>539</v>
       </c>
       <c r="C627" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
@@ -9954,10 +9957,10 @@
         <v>31</v>
       </c>
       <c r="B628" t="s">
-        <v>541</v>
+        <v>828</v>
       </c>
       <c r="C628" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
@@ -9965,10 +9968,10 @@
         <v>31</v>
       </c>
       <c r="B629" t="s">
-        <v>831</v>
+        <v>541</v>
       </c>
       <c r="C629" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
@@ -9976,10 +9979,10 @@
         <v>31</v>
       </c>
       <c r="B630" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C630" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
@@ -9987,10 +9990,10 @@
         <v>31</v>
       </c>
       <c r="B631" t="s">
-        <v>543</v>
+        <v>833</v>
       </c>
       <c r="C631" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
@@ -9998,10 +10001,10 @@
         <v>31</v>
       </c>
       <c r="B632" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C632" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
@@ -10009,10 +10012,10 @@
         <v>31</v>
       </c>
       <c r="B633" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C633" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.25">
@@ -10020,10 +10023,10 @@
         <v>31</v>
       </c>
       <c r="B634" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C634" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.25">
@@ -10031,10 +10034,10 @@
         <v>31</v>
       </c>
       <c r="B635" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C635" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.25">
@@ -10042,10 +10045,10 @@
         <v>31</v>
       </c>
       <c r="B636" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C636" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.25">
@@ -10053,10 +10056,10 @@
         <v>31</v>
       </c>
       <c r="B637" t="s">
-        <v>841</v>
+        <v>553</v>
       </c>
       <c r="C637" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.25">
@@ -10064,10 +10067,10 @@
         <v>31</v>
       </c>
       <c r="B638" t="s">
-        <v>555</v>
+        <v>841</v>
       </c>
       <c r="C638" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.25">
@@ -10075,10 +10078,10 @@
         <v>31</v>
       </c>
       <c r="B639" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C639" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.25">
@@ -10086,10 +10089,10 @@
         <v>31</v>
       </c>
       <c r="B640" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C640" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.25">
@@ -10097,10 +10100,10 @@
         <v>31</v>
       </c>
       <c r="B641" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C641" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.25">
@@ -10108,10 +10111,10 @@
         <v>31</v>
       </c>
       <c r="B642" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C642" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.25">
@@ -10119,10 +10122,10 @@
         <v>31</v>
       </c>
       <c r="B643" t="s">
-        <v>848</v>
+        <v>565</v>
       </c>
       <c r="C643" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.25">
@@ -10130,10 +10133,10 @@
         <v>31</v>
       </c>
       <c r="B644" t="s">
-        <v>569</v>
+        <v>848</v>
       </c>
       <c r="C644" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.25">
@@ -10141,10 +10144,10 @@
         <v>31</v>
       </c>
       <c r="B645" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C645" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.25">
@@ -10152,10 +10155,10 @@
         <v>31</v>
       </c>
       <c r="B646" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C646" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.25">
@@ -10163,10 +10166,10 @@
         <v>31</v>
       </c>
       <c r="B647" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C647" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.25">
@@ -10174,10 +10177,10 @@
         <v>31</v>
       </c>
       <c r="B648" t="s">
-        <v>175</v>
+        <v>575</v>
       </c>
       <c r="C648" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.25">
@@ -10185,10 +10188,10 @@
         <v>31</v>
       </c>
       <c r="B649" t="s">
-        <v>577</v>
+        <v>175</v>
       </c>
       <c r="C649" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.25">
@@ -10196,10 +10199,10 @@
         <v>31</v>
       </c>
       <c r="B650" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C650" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.25">
@@ -10207,10 +10210,10 @@
         <v>31</v>
       </c>
       <c r="B651" t="s">
-        <v>857</v>
+        <v>579</v>
       </c>
       <c r="C651" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.25">
@@ -10218,10 +10221,10 @@
         <v>31</v>
       </c>
       <c r="B652" t="s">
-        <v>551</v>
+        <v>857</v>
       </c>
       <c r="C652" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.25">
@@ -10229,10 +10232,10 @@
         <v>31</v>
       </c>
       <c r="B653" t="s">
-        <v>860</v>
+        <v>551</v>
       </c>
       <c r="C653" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.25">
@@ -10240,10 +10243,10 @@
         <v>31</v>
       </c>
       <c r="B654" t="s">
-        <v>583</v>
+        <v>860</v>
       </c>
       <c r="C654" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.25">
@@ -10251,10 +10254,10 @@
         <v>31</v>
       </c>
       <c r="B655" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C655" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.25">
@@ -10262,10 +10265,10 @@
         <v>31</v>
       </c>
       <c r="B656" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C656" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.25">
@@ -10273,10 +10276,10 @@
         <v>31</v>
       </c>
       <c r="B657" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C657" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.25">
@@ -10284,10 +10287,10 @@
         <v>31</v>
       </c>
       <c r="B658" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C658" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.25">
@@ -10295,10 +10298,10 @@
         <v>31</v>
       </c>
       <c r="B659" t="s">
-        <v>549</v>
+        <v>591</v>
       </c>
       <c r="C659" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.25">
@@ -10306,21 +10309,21 @@
         <v>31</v>
       </c>
       <c r="B660" t="s">
-        <v>868</v>
+        <v>549</v>
       </c>
       <c r="C660" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B661" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C661" s="3" t="s">
-        <v>76</v>
+        <v>31</v>
+      </c>
+      <c r="B661" t="s">
+        <v>868</v>
+      </c>
+      <c r="C661" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.25">
@@ -10328,10 +10331,10 @@
         <v>88</v>
       </c>
       <c r="B662" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C662" s="3" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.25">
@@ -10339,10 +10342,10 @@
         <v>88</v>
       </c>
       <c r="B663" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C663" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.25">
@@ -10350,10 +10353,10 @@
         <v>88</v>
       </c>
       <c r="B664" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C664" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.25">
@@ -10361,10 +10364,10 @@
         <v>88</v>
       </c>
       <c r="B665" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C665" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.25">
@@ -10372,10 +10375,10 @@
         <v>88</v>
       </c>
       <c r="B666" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C666" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.25">
@@ -10383,21 +10386,21 @@
         <v>88</v>
       </c>
       <c r="B667" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C667" s="3" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B668" s="5" t="s">
-        <v>85</v>
+      <c r="B668" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="C668" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.25">
@@ -10405,10 +10408,10 @@
         <v>88</v>
       </c>
       <c r="B669" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C669" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.25">
@@ -10416,32 +10419,32 @@
         <v>88</v>
       </c>
       <c r="B670" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C670" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B671" s="3" t="s">
-        <v>78</v>
+      <c r="B671" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="C671" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672" s="3" t="s">
-        <v>870</v>
+        <v>88</v>
       </c>
       <c r="B672" s="3" t="s">
-        <v>871</v>
+        <v>78</v>
       </c>
       <c r="C672" s="3" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.25">
@@ -10449,10 +10452,10 @@
         <v>870</v>
       </c>
       <c r="B673" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C673" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.25">
@@ -10460,10 +10463,10 @@
         <v>870</v>
       </c>
       <c r="B674" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C674" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.25">
@@ -10471,15 +10474,26 @@
         <v>870</v>
       </c>
       <c r="B675" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="C675" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A676" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="B676" s="3" t="s">
         <v>874</v>
       </c>
-      <c r="C675" s="3" t="s">
+      <c r="C676" s="3" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C33">
-    <sortCondition ref="A3:A33"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C34">
+    <sortCondition ref="A3:A34"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/import/Categorias.xlsx
+++ b/public/import/Categorias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\smasys\public\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC0E632-6901-4B3B-A1AA-3CDD6E5464CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E83E57E-6505-4EA5-809E-CEEFE4BA0787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{190431D2-E99E-4CC8-9814-26C255DEA302}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2023" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="881">
   <si>
     <t>Modulo</t>
   </si>
@@ -2653,6 +2653,21 @@
   </si>
   <si>
     <t>CONVIVIENTE</t>
+  </si>
+  <si>
+    <t>0 | GRADO 0|AUSENCIA DE SIGNOS Y SÍNTOMAS</t>
+  </si>
+  <si>
+    <t>1 | GRADO 1|EXISTENCIA DE SINTOMATOLOGÍA SUGESTIVA Y/O DOLOR EN REPOSO</t>
+  </si>
+  <si>
+    <t>2 | GRADO 2|MAS CONTRACTURA Y/O DOLOR A LA MOVILIZACIÓN</t>
+  </si>
+  <si>
+    <t>3 | GRADO 3|MAS DOLOR A LA PALPACIÓN Y/O PERCUSIÓN</t>
+  </si>
+  <si>
+    <t>4 | GRADO 4|MAS LIMITACIÓN FUNCIONAL EVIDENTE CLÍNICAMENTE</t>
   </si>
 </sst>
 </file>
@@ -3041,16 +3056,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C291EB2-B0B0-413C-9899-EF0DCE462065}">
-  <dimension ref="A1:C676"/>
+  <dimension ref="A1:C681"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A661" workbookViewId="0">
+      <selection activeCell="C677" sqref="C677"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="3"/>
-    <col min="2" max="2" width="44.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="3"/>
     <col min="4" max="16384" width="11.42578125" style="2"/>
   </cols>
@@ -10488,6 +10503,61 @@
         <v>874</v>
       </c>
       <c r="C676" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A677" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B677" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="C677" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A678" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B678" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="C678" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A679" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B679" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="C679" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A680" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B680" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="C680" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A681" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B681" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="C681" s="3" t="s">
         <v>19</v>
       </c>
     </row>

--- a/public/import/Categorias.xlsx
+++ b/public/import/Categorias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\smasys\public\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E83E57E-6505-4EA5-809E-CEEFE4BA0787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C790E3-65CB-4C67-8853-09561022F0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{190431D2-E99E-4CC8-9814-26C255DEA302}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="868">
   <si>
     <t>Modulo</t>
   </si>
@@ -348,9 +348,6 @@
     <t>010</t>
   </si>
   <si>
-    <t>ASESOR</t>
-  </si>
-  <si>
     <t>013</t>
   </si>
   <si>
@@ -360,9 +357,6 @@
     <t>014</t>
   </si>
   <si>
-    <t>MONTAJISTAS ELECTROMECANICOS</t>
-  </si>
-  <si>
     <t>015</t>
   </si>
   <si>
@@ -378,9 +372,6 @@
     <t>017</t>
   </si>
   <si>
-    <t>INTECTOR DE CAMPO</t>
-  </si>
-  <si>
     <t>018</t>
   </si>
   <si>
@@ -396,12 +387,6 @@
     <t>020</t>
   </si>
   <si>
-    <t>COORDNADOR DE CAMPO</t>
-  </si>
-  <si>
-    <t>021</t>
-  </si>
-  <si>
     <t>PRODUCCION</t>
   </si>
   <si>
@@ -426,9 +411,6 @@
     <t>025</t>
   </si>
   <si>
-    <t>JEFE DE EQUIPO</t>
-  </si>
-  <si>
     <t>026</t>
   </si>
   <si>
@@ -504,15 +486,9 @@
     <t>038</t>
   </si>
   <si>
-    <t>RESIDENTE OBRA</t>
-  </si>
-  <si>
     <t>039</t>
   </si>
   <si>
-    <t>ASIST. RESIDEN.</t>
-  </si>
-  <si>
     <t>040</t>
   </si>
   <si>
@@ -576,21 +552,12 @@
     <t>050</t>
   </si>
   <si>
-    <t>TCO LINERO</t>
-  </si>
-  <si>
-    <t>051</t>
-  </si>
-  <si>
     <t>TCO. LINIERO</t>
   </si>
   <si>
     <t>052</t>
   </si>
   <si>
-    <t>TCO PLANTA INTERNA</t>
-  </si>
-  <si>
     <t>053</t>
   </si>
   <si>
@@ -603,9 +570,6 @@
     <t>055</t>
   </si>
   <si>
-    <t>AYUDANTE TEC.</t>
-  </si>
-  <si>
     <t>056</t>
   </si>
   <si>
@@ -627,9 +591,6 @@
     <t>059</t>
   </si>
   <si>
-    <t>TEC. DE APOYO</t>
-  </si>
-  <si>
     <t>060</t>
   </si>
   <si>
@@ -660,15 +621,9 @@
     <t>065</t>
   </si>
   <si>
-    <t>SUB JEFE DISTRIB.</t>
-  </si>
-  <si>
     <t>066</t>
   </si>
   <si>
-    <t>SUPERV. CAMPO</t>
-  </si>
-  <si>
     <t>067</t>
   </si>
   <si>
@@ -678,9 +633,6 @@
     <t>068</t>
   </si>
   <si>
-    <t>AVIADOR</t>
-  </si>
-  <si>
     <t>069</t>
   </si>
   <si>
@@ -690,9 +642,6 @@
     <t>070</t>
   </si>
   <si>
-    <t>GREMOLADAS</t>
-  </si>
-  <si>
     <t>071</t>
   </si>
   <si>
@@ -786,9 +735,6 @@
     <t>087</t>
   </si>
   <si>
-    <t>LABORATORIO   DE  CALIDAD</t>
-  </si>
-  <si>
     <t>088</t>
   </si>
   <si>
@@ -843,9 +789,6 @@
     <t>097</t>
   </si>
   <si>
-    <t>DIRECTOR</t>
-  </si>
-  <si>
     <t>098</t>
   </si>
   <si>
@@ -981,9 +924,6 @@
     <t>120</t>
   </si>
   <si>
-    <t>PREPARADOR</t>
-  </si>
-  <si>
     <t>121</t>
   </si>
   <si>
@@ -993,9 +933,6 @@
     <t>123</t>
   </si>
   <si>
-    <t>JEFE DE PROYECTOS</t>
-  </si>
-  <si>
     <t>124</t>
   </si>
   <si>
@@ -1023,9 +960,6 @@
     <t>128</t>
   </si>
   <si>
-    <t>AGENT. SEGUR.</t>
-  </si>
-  <si>
     <t>129</t>
   </si>
   <si>
@@ -1035,9 +969,6 @@
     <t>130</t>
   </si>
   <si>
-    <t>REPRESENTANTE DE SERVICIOS</t>
-  </si>
-  <si>
     <t>131</t>
   </si>
   <si>
@@ -1065,9 +996,6 @@
     <t>135</t>
   </si>
   <si>
-    <t>CONSULTOR</t>
-  </si>
-  <si>
     <t>136</t>
   </si>
   <si>
@@ -1077,9 +1005,6 @@
     <t>137</t>
   </si>
   <si>
-    <t>DESMERILADOR</t>
-  </si>
-  <si>
     <t>138</t>
   </si>
   <si>
@@ -1095,9 +1020,6 @@
     <t>140</t>
   </si>
   <si>
-    <t>REPRESENTANTE</t>
-  </si>
-  <si>
     <t>141</t>
   </si>
   <si>
@@ -1173,9 +1095,6 @@
     <t>153</t>
   </si>
   <si>
-    <t>PREVENCIONISTA</t>
-  </si>
-  <si>
     <t>154</t>
   </si>
   <si>
@@ -1260,9 +1179,6 @@
     <t>PRACT. ELECTRICISTA</t>
   </si>
   <si>
-    <t>168</t>
-  </si>
-  <si>
     <t>DISPLAY</t>
   </si>
   <si>
@@ -1335,9 +1251,6 @@
     <t>180</t>
   </si>
   <si>
-    <t>MECANICO ELECTRICO</t>
-  </si>
-  <si>
     <t>181</t>
   </si>
   <si>
@@ -1377,9 +1290,6 @@
     <t>187</t>
   </si>
   <si>
-    <t>TENICO CAPATAZ</t>
-  </si>
-  <si>
     <t>188</t>
   </si>
   <si>
@@ -1500,9 +1410,6 @@
     <t>208</t>
   </si>
   <si>
-    <t>TECNICO ELECTRONICO</t>
-  </si>
-  <si>
     <t>209</t>
   </si>
   <si>
@@ -1728,9 +1635,6 @@
     <t>246</t>
   </si>
   <si>
-    <t>AUXLIAR DE GESTION</t>
-  </si>
-  <si>
     <t>247</t>
   </si>
   <si>
@@ -2668,6 +2572,63 @@
   </si>
   <si>
     <t>4 | GRADO 4|MAS LIMITACIÓN FUNCIONAL EVIDENTE CLÍNICAMENTE</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>DEBAJO 2500 M</t>
+  </si>
+  <si>
+    <t>2501 A 3000 M</t>
+  </si>
+  <si>
+    <t>3001 A 3500 M</t>
+  </si>
+  <si>
+    <t>3501 A 4000 M</t>
+  </si>
+  <si>
+    <t>4001 A 4500 M</t>
+  </si>
+  <si>
+    <t>MÁS DE 4501 M</t>
+  </si>
+  <si>
+    <t>ADMINISTRACIÓN</t>
+  </si>
+  <si>
+    <t>COCINA</t>
+  </si>
+  <si>
+    <t>CONSULTORÍA</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN</t>
+  </si>
+  <si>
+    <t>ENFERMERÍA</t>
+  </si>
+  <si>
+    <t>FACTURACIÓN</t>
+  </si>
+  <si>
+    <t>INFORMATICA</t>
+  </si>
+  <si>
+    <t>ALMACEN E INVENTARIOS</t>
+  </si>
+  <si>
+    <t>LABORATORIO  DE  CALIDAD</t>
+  </si>
+  <si>
+    <t>MECANICA</t>
+  </si>
+  <si>
+    <t>PASTEURIZADO</t>
   </si>
 </sst>
 </file>
@@ -3056,10 +3017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C291EB2-B0B0-413C-9899-EF0DCE462065}">
-  <dimension ref="A1:C681"/>
+  <dimension ref="A1:C528"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A661" workbookViewId="0">
-      <selection activeCell="C677" sqref="C677"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3262,7 +3223,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>875</v>
+        <v>843</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>23</v>
@@ -3526,10 +3487,10 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>551</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>552</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -3537,7 +3498,7 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>856</v>
       </c>
       <c r="C43" t="s">
         <v>92</v>
@@ -3548,10 +3509,10 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>346</v>
       </c>
       <c r="C44" t="s">
-        <v>94</v>
+        <v>347</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -3559,10 +3520,10 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>864</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -3570,10 +3531,10 @@
         <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>430</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>431</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -3581,10 +3542,10 @@
         <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>237</v>
       </c>
       <c r="C47" t="s">
-        <v>100</v>
+        <v>238</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -3592,10 +3553,10 @@
         <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>101</v>
+        <v>293</v>
       </c>
       <c r="C48" t="s">
-        <v>102</v>
+        <v>294</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -3603,10 +3564,10 @@
         <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>103</v>
+        <v>344</v>
       </c>
       <c r="C49" t="s">
-        <v>104</v>
+        <v>345</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -3614,10 +3575,10 @@
         <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>105</v>
+        <v>275</v>
       </c>
       <c r="C50" t="s">
-        <v>106</v>
+        <v>276</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -3625,10 +3586,10 @@
         <v>23</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C51" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -3636,10 +3597,10 @@
         <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>109</v>
+        <v>219</v>
       </c>
       <c r="C52" t="s">
-        <v>110</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -3647,10 +3608,10 @@
         <v>23</v>
       </c>
       <c r="B53" t="s">
-        <v>111</v>
+        <v>359</v>
       </c>
       <c r="C53" t="s">
-        <v>112</v>
+        <v>360</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -3658,10 +3619,10 @@
         <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="C54" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -3669,10 +3630,10 @@
         <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>115</v>
+        <v>486</v>
       </c>
       <c r="C55" t="s">
-        <v>116</v>
+        <v>487</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -3680,10 +3641,10 @@
         <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>117</v>
+        <v>857</v>
       </c>
       <c r="C56" t="s">
-        <v>118</v>
+        <v>292</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -3691,10 +3652,10 @@
         <v>23</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="C57" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -3702,10 +3663,10 @@
         <v>23</v>
       </c>
       <c r="B58" t="s">
-        <v>121</v>
+        <v>375</v>
       </c>
       <c r="C58" t="s">
-        <v>122</v>
+        <v>376</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -3713,10 +3674,10 @@
         <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="C59" t="s">
-        <v>124</v>
+        <v>187</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -3724,10 +3685,10 @@
         <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="C60" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -3735,10 +3696,10 @@
         <v>23</v>
       </c>
       <c r="B61" t="s">
-        <v>127</v>
+        <v>858</v>
       </c>
       <c r="C61" t="s">
-        <v>128</v>
+        <v>323</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -3746,10 +3707,10 @@
         <v>23</v>
       </c>
       <c r="B62" t="s">
-        <v>129</v>
+        <v>334</v>
       </c>
       <c r="C62" t="s">
-        <v>130</v>
+        <v>335</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -3757,10 +3718,10 @@
         <v>23</v>
       </c>
       <c r="B63" t="s">
-        <v>131</v>
+        <v>226</v>
       </c>
       <c r="C63" t="s">
-        <v>132</v>
+        <v>227</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -3768,10 +3729,10 @@
         <v>23</v>
       </c>
       <c r="B64" t="s">
-        <v>133</v>
+        <v>859</v>
       </c>
       <c r="C64" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -3779,10 +3740,10 @@
         <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>135</v>
+        <v>424</v>
       </c>
       <c r="C65" t="s">
-        <v>136</v>
+        <v>425</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -3790,10 +3751,10 @@
         <v>23</v>
       </c>
       <c r="B66" t="s">
-        <v>137</v>
+        <v>439</v>
       </c>
       <c r="C66" t="s">
-        <v>138</v>
+        <v>440</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -3801,10 +3762,10 @@
         <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="C67" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -3812,10 +3773,10 @@
         <v>23</v>
       </c>
       <c r="B68" t="s">
-        <v>141</v>
+        <v>206</v>
       </c>
       <c r="C68" t="s">
-        <v>142</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -3823,10 +3784,10 @@
         <v>23</v>
       </c>
       <c r="B69" t="s">
-        <v>143</v>
+        <v>860</v>
       </c>
       <c r="C69" t="s">
-        <v>144</v>
+        <v>254</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -3834,10 +3795,10 @@
         <v>23</v>
       </c>
       <c r="B70" t="s">
-        <v>145</v>
+        <v>384</v>
       </c>
       <c r="C70" t="s">
-        <v>146</v>
+        <v>385</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -3845,10 +3806,10 @@
         <v>23</v>
       </c>
       <c r="B71" t="s">
-        <v>147</v>
+        <v>342</v>
       </c>
       <c r="C71" t="s">
-        <v>148</v>
+        <v>343</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -3856,10 +3817,10 @@
         <v>23</v>
       </c>
       <c r="B72" t="s">
-        <v>149</v>
+        <v>406</v>
       </c>
       <c r="C72" t="s">
-        <v>150</v>
+        <v>407</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -3867,10 +3828,10 @@
         <v>23</v>
       </c>
       <c r="B73" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C73" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -3878,10 +3839,10 @@
         <v>23</v>
       </c>
       <c r="B74" t="s">
-        <v>153</v>
+        <v>307</v>
       </c>
       <c r="C74" t="s">
-        <v>154</v>
+        <v>308</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -3889,10 +3850,10 @@
         <v>23</v>
       </c>
       <c r="B75" t="s">
-        <v>155</v>
+        <v>549</v>
       </c>
       <c r="C75" t="s">
-        <v>156</v>
+        <v>550</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -3900,10 +3861,10 @@
         <v>23</v>
       </c>
       <c r="B76" t="s">
-        <v>157</v>
+        <v>400</v>
       </c>
       <c r="C76" t="s">
-        <v>158</v>
+        <v>401</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -3911,10 +3872,10 @@
         <v>23</v>
       </c>
       <c r="B77" t="s">
-        <v>159</v>
+        <v>861</v>
       </c>
       <c r="C77" t="s">
-        <v>160</v>
+        <v>489</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -3922,10 +3883,10 @@
         <v>23</v>
       </c>
       <c r="B78" t="s">
-        <v>161</v>
+        <v>348</v>
       </c>
       <c r="C78" t="s">
-        <v>162</v>
+        <v>349</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -3933,10 +3894,10 @@
         <v>23</v>
       </c>
       <c r="B79" t="s">
-        <v>163</v>
+        <v>862</v>
       </c>
       <c r="C79" t="s">
-        <v>164</v>
+        <v>341</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -3944,10 +3905,10 @@
         <v>23</v>
       </c>
       <c r="B80" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="C80" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -3955,10 +3916,10 @@
         <v>23</v>
       </c>
       <c r="B81" t="s">
-        <v>167</v>
+        <v>426</v>
       </c>
       <c r="C81" t="s">
-        <v>168</v>
+        <v>427</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -3966,10 +3927,10 @@
         <v>23</v>
       </c>
       <c r="B82" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="C82" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -3977,10 +3938,10 @@
         <v>23</v>
       </c>
       <c r="B83" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="C83" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -3988,10 +3949,10 @@
         <v>23</v>
       </c>
       <c r="B84" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="C84" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -3999,10 +3960,10 @@
         <v>23</v>
       </c>
       <c r="B85" t="s">
-        <v>175</v>
+        <v>863</v>
       </c>
       <c r="C85" t="s">
-        <v>176</v>
+        <v>251</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -4010,10 +3971,10 @@
         <v>23</v>
       </c>
       <c r="B86" t="s">
-        <v>177</v>
+        <v>369</v>
       </c>
       <c r="C86" t="s">
-        <v>178</v>
+        <v>370</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -4021,10 +3982,10 @@
         <v>23</v>
       </c>
       <c r="B87" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C87" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -4032,10 +3993,10 @@
         <v>23</v>
       </c>
       <c r="B88" t="s">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="C88" t="s">
-        <v>182</v>
+        <v>353</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -4043,10 +4004,10 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>183</v>
+        <v>865</v>
       </c>
       <c r="C89" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -4054,10 +4015,10 @@
         <v>23</v>
       </c>
       <c r="B90" t="s">
-        <v>185</v>
+        <v>350</v>
       </c>
       <c r="C90" t="s">
-        <v>186</v>
+        <v>351</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -4065,10 +4026,10 @@
         <v>23</v>
       </c>
       <c r="B91" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="C91" t="s">
-        <v>188</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -4076,10 +4037,10 @@
         <v>23</v>
       </c>
       <c r="B92" t="s">
-        <v>151</v>
+        <v>394</v>
       </c>
       <c r="C92" t="s">
-        <v>189</v>
+        <v>395</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -4087,10 +4048,10 @@
         <v>23</v>
       </c>
       <c r="B93" t="s">
-        <v>190</v>
+        <v>239</v>
       </c>
       <c r="C93" t="s">
-        <v>191</v>
+        <v>240</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -4098,10 +4059,10 @@
         <v>23</v>
       </c>
       <c r="B94" t="s">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c r="C94" t="s">
-        <v>193</v>
+        <v>127</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -4109,10 +4070,10 @@
         <v>23</v>
       </c>
       <c r="B95" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="C95" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -4120,10 +4081,10 @@
         <v>23</v>
       </c>
       <c r="B96" t="s">
-        <v>196</v>
+        <v>866</v>
       </c>
       <c r="C96" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -4131,10 +4092,10 @@
         <v>23</v>
       </c>
       <c r="B97" t="s">
-        <v>198</v>
+        <v>257</v>
       </c>
       <c r="C97" t="s">
-        <v>199</v>
+        <v>258</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -4142,10 +4103,10 @@
         <v>23</v>
       </c>
       <c r="B98" t="s">
-        <v>200</v>
+        <v>312</v>
       </c>
       <c r="C98" t="s">
-        <v>201</v>
+        <v>313</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -4153,10 +4114,10 @@
         <v>23</v>
       </c>
       <c r="B99" t="s">
-        <v>202</v>
+        <v>361</v>
       </c>
       <c r="C99" t="s">
-        <v>203</v>
+        <v>362</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -4164,10 +4125,10 @@
         <v>23</v>
       </c>
       <c r="B100" t="s">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="C100" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -4175,10 +4136,10 @@
         <v>23</v>
       </c>
       <c r="B101" t="s">
-        <v>206</v>
+        <v>526</v>
       </c>
       <c r="C101" t="s">
-        <v>207</v>
+        <v>527</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -4186,10 +4147,10 @@
         <v>23</v>
       </c>
       <c r="B102" t="s">
-        <v>208</v>
+        <v>283</v>
       </c>
       <c r="C102" t="s">
-        <v>209</v>
+        <v>284</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -4197,10 +4158,10 @@
         <v>23</v>
       </c>
       <c r="B103" t="s">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="C103" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -4208,10 +4169,10 @@
         <v>23</v>
       </c>
       <c r="B104" t="s">
-        <v>211</v>
+        <v>392</v>
       </c>
       <c r="C104" t="s">
-        <v>212</v>
+        <v>393</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -4219,10 +4180,10 @@
         <v>23</v>
       </c>
       <c r="B105" t="s">
-        <v>213</v>
+        <v>867</v>
       </c>
       <c r="C105" t="s">
-        <v>214</v>
+        <v>414</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -4230,10 +4191,10 @@
         <v>23</v>
       </c>
       <c r="B106" t="s">
-        <v>215</v>
+        <v>373</v>
       </c>
       <c r="C106" t="s">
-        <v>216</v>
+        <v>374</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -4241,10 +4202,10 @@
         <v>23</v>
       </c>
       <c r="B107" t="s">
-        <v>217</v>
+        <v>133</v>
       </c>
       <c r="C107" t="s">
-        <v>218</v>
+        <v>134</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -4252,10 +4213,10 @@
         <v>23</v>
       </c>
       <c r="B108" t="s">
-        <v>219</v>
+        <v>263</v>
       </c>
       <c r="C108" t="s">
-        <v>220</v>
+        <v>264</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -4263,10 +4224,10 @@
         <v>23</v>
       </c>
       <c r="B109" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C109" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -4274,10 +4235,10 @@
         <v>23</v>
       </c>
       <c r="B110" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="C110" t="s">
-        <v>224</v>
+        <v>270</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -4285,10 +4246,10 @@
         <v>23</v>
       </c>
       <c r="B111" t="s">
-        <v>225</v>
+        <v>120</v>
       </c>
       <c r="C111" t="s">
-        <v>226</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -4296,10 +4257,10 @@
         <v>23</v>
       </c>
       <c r="B112" t="s">
-        <v>219</v>
+        <v>155</v>
       </c>
       <c r="C112" t="s">
-        <v>227</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -4307,10 +4268,10 @@
         <v>23</v>
       </c>
       <c r="B113" t="s">
-        <v>228</v>
+        <v>157</v>
       </c>
       <c r="C113" t="s">
-        <v>229</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -4318,10 +4279,10 @@
         <v>23</v>
       </c>
       <c r="B114" t="s">
-        <v>230</v>
+        <v>163</v>
       </c>
       <c r="C114" t="s">
-        <v>231</v>
+        <v>164</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -4329,10 +4290,10 @@
         <v>23</v>
       </c>
       <c r="B115" t="s">
-        <v>232</v>
+        <v>315</v>
       </c>
       <c r="C115" t="s">
-        <v>233</v>
+        <v>316</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -4340,10 +4301,10 @@
         <v>23</v>
       </c>
       <c r="B116" t="s">
-        <v>234</v>
+        <v>379</v>
       </c>
       <c r="C116" t="s">
-        <v>235</v>
+        <v>380</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -4351,10 +4312,10 @@
         <v>23</v>
       </c>
       <c r="B117" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="C117" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -4362,10 +4323,10 @@
         <v>23</v>
       </c>
       <c r="B118" t="s">
-        <v>223</v>
+        <v>116</v>
       </c>
       <c r="C118" t="s">
-        <v>238</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -4373,10 +4334,10 @@
         <v>23</v>
       </c>
       <c r="B119" t="s">
-        <v>239</v>
+        <v>532</v>
       </c>
       <c r="C119" t="s">
-        <v>240</v>
+        <v>533</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -4384,10 +4345,10 @@
         <v>23</v>
       </c>
       <c r="B120" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C120" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -4395,10 +4356,10 @@
         <v>23</v>
       </c>
       <c r="B121" t="s">
-        <v>243</v>
+        <v>317</v>
       </c>
       <c r="C121" t="s">
-        <v>244</v>
+        <v>318</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -4406,10 +4367,10 @@
         <v>23</v>
       </c>
       <c r="B122" t="s">
-        <v>245</v>
+        <v>97</v>
       </c>
       <c r="C122" t="s">
-        <v>246</v>
+        <v>98</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -4417,10 +4378,10 @@
         <v>23</v>
       </c>
       <c r="B123" t="s">
-        <v>247</v>
+        <v>149</v>
       </c>
       <c r="C123" t="s">
-        <v>248</v>
+        <v>150</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -4428,10 +4389,10 @@
         <v>23</v>
       </c>
       <c r="B124" t="s">
-        <v>249</v>
+        <v>309</v>
       </c>
       <c r="C124" t="s">
-        <v>250</v>
+        <v>310</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -4439,10 +4400,10 @@
         <v>23</v>
       </c>
       <c r="B125" t="s">
-        <v>251</v>
+        <v>303</v>
       </c>
       <c r="C125" t="s">
-        <v>252</v>
+        <v>304</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -4450,10 +4411,10 @@
         <v>23</v>
       </c>
       <c r="B126" t="s">
-        <v>253</v>
+        <v>508</v>
       </c>
       <c r="C126" t="s">
-        <v>254</v>
+        <v>509</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -4461,10 +4422,10 @@
         <v>23</v>
       </c>
       <c r="B127" t="s">
-        <v>255</v>
+        <v>377</v>
       </c>
       <c r="C127" t="s">
-        <v>256</v>
+        <v>378</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -4472,10 +4433,10 @@
         <v>23</v>
       </c>
       <c r="B128" t="s">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="C128" t="s">
-        <v>258</v>
+        <v>298</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -4483,10 +4444,10 @@
         <v>23</v>
       </c>
       <c r="B129" t="s">
-        <v>259</v>
+        <v>171</v>
       </c>
       <c r="C129" t="s">
-        <v>260</v>
+        <v>172</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -4494,10 +4455,10 @@
         <v>23</v>
       </c>
       <c r="B130" t="s">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="C130" t="s">
-        <v>261</v>
+        <v>90</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -4505,10 +4466,10 @@
         <v>23</v>
       </c>
       <c r="B131" t="s">
-        <v>262</v>
+        <v>381</v>
       </c>
       <c r="C131" t="s">
-        <v>263</v>
+        <v>382</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -4516,10 +4477,10 @@
         <v>23</v>
       </c>
       <c r="B132" t="s">
-        <v>264</v>
+        <v>151</v>
       </c>
       <c r="C132" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -4527,10 +4488,10 @@
         <v>23</v>
       </c>
       <c r="B133" t="s">
-        <v>266</v>
+        <v>111</v>
       </c>
       <c r="C133" t="s">
-        <v>267</v>
+        <v>112</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -4538,10 +4499,10 @@
         <v>23</v>
       </c>
       <c r="B134" t="s">
-        <v>268</v>
+        <v>173</v>
       </c>
       <c r="C134" t="s">
-        <v>269</v>
+        <v>174</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -4549,10 +4510,10 @@
         <v>23</v>
       </c>
       <c r="B135" t="s">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c r="C135" t="s">
-        <v>271</v>
+        <v>216</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -4560,10 +4521,10 @@
         <v>23</v>
       </c>
       <c r="B136" t="s">
-        <v>272</v>
+        <v>108</v>
       </c>
       <c r="C136" t="s">
-        <v>273</v>
+        <v>197</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -4571,10 +4532,10 @@
         <v>23</v>
       </c>
       <c r="B137" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C137" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -4582,1759 +4543,1759 @@
         <v>23</v>
       </c>
       <c r="B138" t="s">
-        <v>276</v>
+        <v>338</v>
       </c>
       <c r="C138" t="s">
-        <v>277</v>
+        <v>339</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B139" t="s">
-        <v>278</v>
+        <v>217</v>
       </c>
       <c r="C139" t="s">
-        <v>279</v>
+        <v>90</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B140" t="s">
-        <v>280</v>
+        <v>562</v>
       </c>
       <c r="C140" t="s">
-        <v>281</v>
+        <v>92</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B141" t="s">
-        <v>282</v>
+        <v>93</v>
       </c>
       <c r="C141" t="s">
-        <v>283</v>
+        <v>94</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B142" t="s">
-        <v>284</v>
+        <v>95</v>
       </c>
       <c r="C142" t="s">
-        <v>285</v>
+        <v>96</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B143" t="s">
-        <v>286</v>
+        <v>101</v>
       </c>
       <c r="C143" t="s">
-        <v>287</v>
+        <v>563</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B144" t="s">
-        <v>288</v>
+        <v>89</v>
       </c>
       <c r="C144" t="s">
-        <v>289</v>
+        <v>98</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B145" t="s">
-        <v>290</v>
+        <v>195</v>
       </c>
       <c r="C145" t="s">
-        <v>291</v>
+        <v>100</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B146" t="s">
-        <v>292</v>
+        <v>200</v>
       </c>
       <c r="C146" t="s">
-        <v>293</v>
+        <v>102</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B147" t="s">
-        <v>294</v>
+        <v>97</v>
       </c>
       <c r="C147" t="s">
-        <v>295</v>
+        <v>104</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B148" t="s">
-        <v>296</v>
+        <v>564</v>
       </c>
       <c r="C148" t="s">
-        <v>297</v>
+        <v>106</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B149" t="s">
-        <v>298</v>
+        <v>565</v>
       </c>
       <c r="C149" t="s">
-        <v>299</v>
+        <v>566</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B150" t="s">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="C150" t="s">
-        <v>301</v>
+        <v>567</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B151" t="s">
-        <v>302</v>
+        <v>122</v>
       </c>
       <c r="C151" t="s">
-        <v>303</v>
+        <v>107</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B152" t="s">
-        <v>304</v>
+        <v>246</v>
       </c>
       <c r="C152" t="s">
-        <v>305</v>
+        <v>109</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B153" t="s">
-        <v>306</v>
+        <v>568</v>
       </c>
       <c r="C153" t="s">
-        <v>307</v>
+        <v>110</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B154" t="s">
-        <v>308</v>
+        <v>569</v>
       </c>
       <c r="C154" t="s">
-        <v>309</v>
+        <v>112</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B155" t="s">
-        <v>310</v>
+        <v>570</v>
       </c>
       <c r="C155" t="s">
-        <v>311</v>
+        <v>114</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B156" t="s">
-        <v>312</v>
+        <v>571</v>
       </c>
       <c r="C156" t="s">
-        <v>313</v>
+        <v>115</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B157" t="s">
-        <v>314</v>
+        <v>572</v>
       </c>
       <c r="C157" t="s">
-        <v>315</v>
+        <v>117</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B158" t="s">
-        <v>316</v>
+        <v>179</v>
       </c>
       <c r="C158" t="s">
-        <v>317</v>
+        <v>119</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B159" t="s">
-        <v>318</v>
+        <v>244</v>
       </c>
       <c r="C159" t="s">
-        <v>319</v>
+        <v>121</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B160" t="s">
-        <v>320</v>
+        <v>573</v>
       </c>
       <c r="C160" t="s">
-        <v>321</v>
+        <v>123</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>322</v>
+        <v>574</v>
       </c>
       <c r="C161" t="s">
-        <v>323</v>
+        <v>125</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B162" t="s">
-        <v>324</v>
+        <v>118</v>
       </c>
       <c r="C162" t="s">
-        <v>325</v>
+        <v>127</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B163" t="s">
-        <v>326</v>
+        <v>575</v>
       </c>
       <c r="C163" t="s">
-        <v>327</v>
+        <v>128</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B164" t="s">
-        <v>328</v>
+        <v>135</v>
       </c>
       <c r="C164" t="s">
-        <v>329</v>
+        <v>130</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B165" t="s">
-        <v>330</v>
+        <v>124</v>
       </c>
       <c r="C165" t="s">
-        <v>331</v>
+        <v>132</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B166" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="C166" t="s">
-        <v>333</v>
+        <v>136</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B167" t="s">
-        <v>334</v>
+        <v>91</v>
       </c>
       <c r="C167" t="s">
-        <v>335</v>
+        <v>138</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B168" t="s">
-        <v>336</v>
+        <v>161</v>
       </c>
       <c r="C168" t="s">
-        <v>337</v>
+        <v>140</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B169" t="s">
-        <v>338</v>
+        <v>159</v>
       </c>
       <c r="C169" t="s">
-        <v>339</v>
+        <v>142</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B170" t="s">
-        <v>340</v>
+        <v>131</v>
       </c>
       <c r="C170" t="s">
-        <v>341</v>
+        <v>144</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B171" t="s">
-        <v>342</v>
+        <v>576</v>
       </c>
       <c r="C171" t="s">
-        <v>343</v>
+        <v>146</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B172" t="s">
-        <v>344</v>
+        <v>577</v>
       </c>
       <c r="C172" t="s">
-        <v>345</v>
+        <v>148</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B173" t="s">
-        <v>346</v>
+        <v>578</v>
       </c>
       <c r="C173" t="s">
-        <v>347</v>
+        <v>150</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B174" t="s">
-        <v>348</v>
+        <v>579</v>
       </c>
       <c r="C174" t="s">
-        <v>349</v>
+        <v>152</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B175" t="s">
-        <v>350</v>
+        <v>580</v>
       </c>
       <c r="C175" t="s">
-        <v>351</v>
+        <v>153</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B176" t="s">
-        <v>352</v>
+        <v>581</v>
       </c>
       <c r="C176" t="s">
-        <v>353</v>
+        <v>154</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B177" t="s">
-        <v>354</v>
+        <v>582</v>
       </c>
       <c r="C177" t="s">
-        <v>355</v>
+        <v>156</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B178" t="s">
-        <v>356</v>
+        <v>583</v>
       </c>
       <c r="C178" t="s">
-        <v>357</v>
+        <v>158</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B179" t="s">
-        <v>358</v>
+        <v>447</v>
       </c>
       <c r="C179" t="s">
-        <v>359</v>
+        <v>160</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B180" t="s">
-        <v>360</v>
+        <v>584</v>
       </c>
       <c r="C180" t="s">
-        <v>361</v>
+        <v>162</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B181" t="s">
-        <v>362</v>
+        <v>585</v>
       </c>
       <c r="C181" t="s">
-        <v>363</v>
+        <v>164</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B182" t="s">
-        <v>364</v>
+        <v>586</v>
       </c>
       <c r="C182" t="s">
-        <v>365</v>
+        <v>166</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B183" t="s">
-        <v>366</v>
+        <v>587</v>
       </c>
       <c r="C183" t="s">
-        <v>367</v>
+        <v>168</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B184" t="s">
-        <v>368</v>
+        <v>588</v>
       </c>
       <c r="C184" t="s">
-        <v>369</v>
+        <v>170</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B185" t="s">
-        <v>370</v>
+        <v>589</v>
       </c>
       <c r="C185" t="s">
-        <v>371</v>
+        <v>172</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B186" t="s">
-        <v>372</v>
+        <v>590</v>
       </c>
       <c r="C186" t="s">
-        <v>373</v>
+        <v>174</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B187" t="s">
-        <v>374</v>
+        <v>591</v>
       </c>
       <c r="C187" t="s">
-        <v>375</v>
+        <v>176</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B188" t="s">
-        <v>376</v>
+        <v>234</v>
       </c>
       <c r="C188" t="s">
-        <v>377</v>
+        <v>177</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B189" t="s">
-        <v>378</v>
+        <v>99</v>
       </c>
       <c r="C189" t="s">
-        <v>379</v>
+        <v>178</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B190" t="s">
-        <v>380</v>
+        <v>122</v>
       </c>
       <c r="C190" t="s">
-        <v>381</v>
+        <v>180</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B191" t="s">
-        <v>382</v>
+        <v>592</v>
       </c>
       <c r="C191" t="s">
-        <v>383</v>
+        <v>181</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B192" t="s">
-        <v>384</v>
+        <v>593</v>
       </c>
       <c r="C192" t="s">
-        <v>385</v>
+        <v>183</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B193" t="s">
-        <v>386</v>
+        <v>103</v>
       </c>
       <c r="C193" t="s">
-        <v>387</v>
+        <v>185</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B194" t="s">
-        <v>388</v>
+        <v>594</v>
       </c>
       <c r="C194" t="s">
-        <v>389</v>
+        <v>187</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B195" t="s">
-        <v>390</v>
+        <v>595</v>
       </c>
       <c r="C195" t="s">
-        <v>391</v>
+        <v>188</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B196" t="s">
-        <v>392</v>
+        <v>596</v>
       </c>
       <c r="C196" t="s">
-        <v>393</v>
+        <v>190</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B197" t="s">
-        <v>394</v>
+        <v>161</v>
       </c>
       <c r="C197" t="s">
-        <v>395</v>
+        <v>192</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B198" t="s">
-        <v>396</v>
+        <v>597</v>
       </c>
       <c r="C198" t="s">
-        <v>397</v>
+        <v>194</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B199" t="s">
-        <v>398</v>
+        <v>598</v>
       </c>
       <c r="C199" t="s">
-        <v>399</v>
+        <v>196</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B200" t="s">
-        <v>400</v>
+        <v>599</v>
       </c>
       <c r="C200" t="s">
-        <v>401</v>
+        <v>197</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B201" t="s">
-        <v>402</v>
+        <v>600</v>
       </c>
       <c r="C201" t="s">
-        <v>403</v>
+        <v>198</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B202" t="s">
-        <v>404</v>
+        <v>601</v>
       </c>
       <c r="C202" t="s">
-        <v>405</v>
+        <v>199</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B203" t="s">
-        <v>406</v>
+        <v>602</v>
       </c>
       <c r="C203" t="s">
-        <v>407</v>
+        <v>201</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B204" t="s">
-        <v>408</v>
+        <v>603</v>
       </c>
       <c r="C204" t="s">
-        <v>409</v>
+        <v>202</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B205" t="s">
-        <v>410</v>
+        <v>604</v>
       </c>
       <c r="C205" t="s">
-        <v>411</v>
+        <v>204</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B206" t="s">
-        <v>412</v>
+        <v>175</v>
       </c>
       <c r="C206" t="s">
-        <v>413</v>
+        <v>205</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B207" t="s">
-        <v>414</v>
+        <v>605</v>
       </c>
       <c r="C207" t="s">
-        <v>415</v>
+        <v>207</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B208" t="s">
-        <v>416</v>
+        <v>606</v>
       </c>
       <c r="C208" t="s">
-        <v>417</v>
+        <v>209</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B209" t="s">
-        <v>418</v>
+        <v>607</v>
       </c>
       <c r="C209" t="s">
-        <v>419</v>
+        <v>210</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B210" t="s">
-        <v>420</v>
+        <v>608</v>
       </c>
       <c r="C210" t="s">
-        <v>421</v>
+        <v>212</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B211" t="s">
-        <v>422</v>
+        <v>609</v>
       </c>
       <c r="C211" t="s">
-        <v>423</v>
+        <v>214</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B212" t="s">
-        <v>424</v>
+        <v>108</v>
       </c>
       <c r="C212" t="s">
-        <v>425</v>
+        <v>216</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B213" t="s">
-        <v>426</v>
+        <v>186</v>
       </c>
       <c r="C213" t="s">
-        <v>427</v>
+        <v>218</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B214" t="s">
-        <v>428</v>
+        <v>610</v>
       </c>
       <c r="C214" t="s">
-        <v>429</v>
+        <v>220</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B215" t="s">
-        <v>430</v>
+        <v>611</v>
       </c>
       <c r="C215" t="s">
-        <v>431</v>
+        <v>221</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B216" t="s">
-        <v>432</v>
+        <v>189</v>
       </c>
       <c r="C216" t="s">
-        <v>433</v>
+        <v>223</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B217" t="s">
-        <v>434</v>
+        <v>191</v>
       </c>
       <c r="C217" t="s">
-        <v>435</v>
+        <v>225</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B218" t="s">
-        <v>436</v>
+        <v>612</v>
       </c>
       <c r="C218" t="s">
-        <v>437</v>
+        <v>227</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B219" t="s">
-        <v>438</v>
+        <v>193</v>
       </c>
       <c r="C219" t="s">
-        <v>439</v>
+        <v>229</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B220" t="s">
-        <v>440</v>
+        <v>165</v>
       </c>
       <c r="C220" t="s">
-        <v>441</v>
+        <v>231</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B221" t="s">
-        <v>442</v>
+        <v>342</v>
       </c>
       <c r="C221" t="s">
-        <v>443</v>
+        <v>233</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B222" t="s">
-        <v>444</v>
+        <v>145</v>
       </c>
       <c r="C222" t="s">
-        <v>445</v>
+        <v>235</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B223" t="s">
-        <v>446</v>
+        <v>613</v>
       </c>
       <c r="C223" t="s">
-        <v>447</v>
+        <v>236</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B224" t="s">
-        <v>448</v>
+        <v>398</v>
       </c>
       <c r="C224" t="s">
-        <v>449</v>
+        <v>238</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>450</v>
+        <v>614</v>
       </c>
       <c r="C225" t="s">
-        <v>451</v>
+        <v>240</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B226" t="s">
-        <v>452</v>
+        <v>615</v>
       </c>
       <c r="C226" t="s">
-        <v>453</v>
+        <v>242</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B227" t="s">
-        <v>454</v>
+        <v>111</v>
       </c>
       <c r="C227" t="s">
-        <v>455</v>
+        <v>243</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B228" t="s">
-        <v>456</v>
+        <v>224</v>
       </c>
       <c r="C228" t="s">
-        <v>457</v>
+        <v>245</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B229" t="s">
-        <v>458</v>
+        <v>159</v>
       </c>
       <c r="C229" t="s">
-        <v>459</v>
+        <v>247</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B230" t="s">
-        <v>460</v>
+        <v>616</v>
       </c>
       <c r="C230" t="s">
-        <v>461</v>
+        <v>249</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B231" t="s">
-        <v>462</v>
+        <v>617</v>
       </c>
       <c r="C231" t="s">
-        <v>463</v>
+        <v>251</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B232" t="s">
-        <v>464</v>
+        <v>618</v>
       </c>
       <c r="C232" t="s">
-        <v>465</v>
+        <v>253</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B233" t="s">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="C233" t="s">
-        <v>466</v>
+        <v>254</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B234" t="s">
-        <v>467</v>
+        <v>619</v>
       </c>
       <c r="C234" t="s">
-        <v>468</v>
+        <v>256</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B235" t="s">
-        <v>469</v>
+        <v>620</v>
       </c>
       <c r="C235" t="s">
-        <v>470</v>
+        <v>258</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B236" t="s">
-        <v>471</v>
+        <v>126</v>
       </c>
       <c r="C236" t="s">
-        <v>472</v>
+        <v>260</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B237" t="s">
-        <v>473</v>
+        <v>621</v>
       </c>
       <c r="C237" t="s">
-        <v>474</v>
+        <v>262</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B238" t="s">
-        <v>475</v>
+        <v>622</v>
       </c>
       <c r="C238" t="s">
-        <v>476</v>
+        <v>264</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B239" t="s">
-        <v>477</v>
+        <v>623</v>
       </c>
       <c r="C239" t="s">
-        <v>478</v>
+        <v>266</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B240" t="s">
-        <v>479</v>
+        <v>211</v>
       </c>
       <c r="C240" t="s">
-        <v>480</v>
+        <v>268</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B241" t="s">
-        <v>481</v>
+        <v>624</v>
       </c>
       <c r="C241" t="s">
-        <v>482</v>
+        <v>270</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B242" t="s">
-        <v>483</v>
+        <v>625</v>
       </c>
       <c r="C242" t="s">
-        <v>484</v>
+        <v>272</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B243" t="s">
-        <v>485</v>
+        <v>626</v>
       </c>
       <c r="C243" t="s">
-        <v>486</v>
+        <v>274</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B244" t="s">
-        <v>487</v>
+        <v>627</v>
       </c>
       <c r="C244" t="s">
-        <v>488</v>
+        <v>276</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B245" t="s">
-        <v>489</v>
+        <v>616</v>
       </c>
       <c r="C245" t="s">
-        <v>490</v>
+        <v>278</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B246" t="s">
-        <v>491</v>
+        <v>628</v>
       </c>
       <c r="C246" t="s">
-        <v>492</v>
+        <v>280</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B247" t="s">
-        <v>493</v>
+        <v>629</v>
       </c>
       <c r="C247" t="s">
-        <v>494</v>
+        <v>282</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B248" t="s">
-        <v>495</v>
+        <v>344</v>
       </c>
       <c r="C248" t="s">
-        <v>496</v>
+        <v>284</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B249" t="s">
-        <v>497</v>
+        <v>226</v>
       </c>
       <c r="C249" t="s">
-        <v>498</v>
+        <v>286</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B250" t="s">
-        <v>499</v>
+        <v>630</v>
       </c>
       <c r="C250" t="s">
-        <v>500</v>
+        <v>288</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B251" t="s">
-        <v>501</v>
+        <v>402</v>
       </c>
       <c r="C251" t="s">
-        <v>502</v>
+        <v>290</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B252" t="s">
-        <v>503</v>
+        <v>631</v>
       </c>
       <c r="C252" t="s">
-        <v>504</v>
+        <v>292</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B253" t="s">
-        <v>505</v>
+        <v>632</v>
       </c>
       <c r="C253" t="s">
-        <v>506</v>
+        <v>294</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B254" t="s">
-        <v>507</v>
+        <v>633</v>
       </c>
       <c r="C254" t="s">
-        <v>508</v>
+        <v>296</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B255" t="s">
-        <v>509</v>
+        <v>634</v>
       </c>
       <c r="C255" t="s">
-        <v>510</v>
+        <v>298</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B256" t="s">
-        <v>511</v>
+        <v>635</v>
       </c>
       <c r="C256" t="s">
-        <v>512</v>
+        <v>299</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B257" t="s">
-        <v>513</v>
+        <v>636</v>
       </c>
       <c r="C257" t="s">
-        <v>514</v>
+        <v>637</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B258" t="s">
-        <v>515</v>
+        <v>638</v>
       </c>
       <c r="C258" t="s">
-        <v>516</v>
+        <v>301</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B259" t="s">
-        <v>517</v>
+        <v>222</v>
       </c>
       <c r="C259" t="s">
-        <v>518</v>
+        <v>302</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B260" t="s">
-        <v>519</v>
+        <v>639</v>
       </c>
       <c r="C260" t="s">
-        <v>520</v>
+        <v>304</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B261" t="s">
-        <v>521</v>
+        <v>151</v>
       </c>
       <c r="C261" t="s">
-        <v>522</v>
+        <v>306</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B262" t="s">
-        <v>523</v>
+        <v>640</v>
       </c>
       <c r="C262" t="s">
-        <v>524</v>
+        <v>308</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B263" t="s">
-        <v>525</v>
+        <v>248</v>
       </c>
       <c r="C263" t="s">
-        <v>526</v>
+        <v>310</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B264" t="s">
-        <v>527</v>
+        <v>641</v>
       </c>
       <c r="C264" t="s">
-        <v>528</v>
+        <v>311</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B265" t="s">
-        <v>529</v>
+        <v>213</v>
       </c>
       <c r="C265" t="s">
-        <v>530</v>
+        <v>313</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B266" t="s">
-        <v>531</v>
+        <v>642</v>
       </c>
       <c r="C266" t="s">
-        <v>532</v>
+        <v>314</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B267" t="s">
-        <v>533</v>
+        <v>250</v>
       </c>
       <c r="C267" t="s">
-        <v>534</v>
+        <v>316</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B268" t="s">
-        <v>535</v>
+        <v>643</v>
       </c>
       <c r="C268" t="s">
-        <v>536</v>
+        <v>318</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B269" t="s">
-        <v>537</v>
+        <v>644</v>
       </c>
       <c r="C269" t="s">
-        <v>538</v>
+        <v>320</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B270" t="s">
-        <v>539</v>
+        <v>255</v>
       </c>
       <c r="C270" t="s">
-        <v>540</v>
+        <v>322</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B271" t="s">
-        <v>541</v>
+        <v>645</v>
       </c>
       <c r="C271" t="s">
-        <v>542</v>
+        <v>323</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B272" t="s">
-        <v>543</v>
+        <v>259</v>
       </c>
       <c r="C272" t="s">
-        <v>544</v>
+        <v>325</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B273" t="s">
-        <v>545</v>
+        <v>261</v>
       </c>
       <c r="C273" t="s">
-        <v>546</v>
+        <v>326</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B274" t="s">
-        <v>547</v>
+        <v>646</v>
       </c>
       <c r="C274" t="s">
-        <v>548</v>
+        <v>328</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B275" t="s">
-        <v>549</v>
+        <v>265</v>
       </c>
       <c r="C275" t="s">
-        <v>550</v>
+        <v>330</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B276" t="s">
-        <v>551</v>
+        <v>267</v>
       </c>
       <c r="C276" t="s">
-        <v>552</v>
+        <v>331</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B277" t="s">
-        <v>553</v>
+        <v>647</v>
       </c>
       <c r="C277" t="s">
-        <v>554</v>
+        <v>333</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B278" t="s">
-        <v>555</v>
+        <v>648</v>
       </c>
       <c r="C278" t="s">
-        <v>556</v>
+        <v>335</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B279" t="s">
-        <v>557</v>
+        <v>649</v>
       </c>
       <c r="C279" t="s">
-        <v>558</v>
+        <v>337</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B280" t="s">
-        <v>559</v>
+        <v>650</v>
       </c>
       <c r="C280" t="s">
-        <v>560</v>
+        <v>339</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B281" t="s">
-        <v>561</v>
+        <v>651</v>
       </c>
       <c r="C281" t="s">
-        <v>562</v>
+        <v>341</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B282" t="s">
-        <v>563</v>
+        <v>271</v>
       </c>
       <c r="C282" t="s">
-        <v>564</v>
+        <v>343</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B283" t="s">
-        <v>565</v>
+        <v>273</v>
       </c>
       <c r="C283" t="s">
-        <v>566</v>
+        <v>345</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B284" t="s">
-        <v>567</v>
+        <v>652</v>
       </c>
       <c r="C284" t="s">
-        <v>568</v>
+        <v>347</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B285" t="s">
-        <v>569</v>
+        <v>305</v>
       </c>
       <c r="C285" t="s">
-        <v>570</v>
+        <v>349</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B286" t="s">
-        <v>571</v>
+        <v>653</v>
       </c>
       <c r="C286" t="s">
-        <v>572</v>
+        <v>351</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B287" t="s">
-        <v>573</v>
+        <v>654</v>
       </c>
       <c r="C287" t="s">
-        <v>574</v>
+        <v>353</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B288" t="s">
-        <v>575</v>
+        <v>277</v>
       </c>
       <c r="C288" t="s">
-        <v>576</v>
+        <v>355</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B289" t="s">
-        <v>577</v>
+        <v>655</v>
       </c>
       <c r="C289" t="s">
-        <v>578</v>
+        <v>356</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B290" t="s">
-        <v>579</v>
+        <v>279</v>
       </c>
       <c r="C290" t="s">
-        <v>580</v>
+        <v>358</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B291" t="s">
-        <v>581</v>
+        <v>281</v>
       </c>
       <c r="C291" t="s">
-        <v>582</v>
+        <v>360</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B292" t="s">
-        <v>583</v>
+        <v>656</v>
       </c>
       <c r="C292" t="s">
-        <v>584</v>
+        <v>362</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B293" t="s">
-        <v>585</v>
+        <v>657</v>
       </c>
       <c r="C293" t="s">
-        <v>586</v>
+        <v>364</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B294" t="s">
-        <v>587</v>
+        <v>658</v>
       </c>
       <c r="C294" t="s">
-        <v>588</v>
+        <v>366</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B295" t="s">
-        <v>589</v>
+        <v>283</v>
       </c>
       <c r="C295" t="s">
-        <v>590</v>
+        <v>368</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B296" t="s">
-        <v>591</v>
+        <v>252</v>
       </c>
       <c r="C296" t="s">
-        <v>592</v>
+        <v>370</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B297" t="s">
-        <v>549</v>
+        <v>285</v>
       </c>
       <c r="C297" t="s">
-        <v>593</v>
+        <v>372</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -6342,10 +6303,10 @@
         <v>31</v>
       </c>
       <c r="B298" t="s">
-        <v>234</v>
+        <v>287</v>
       </c>
       <c r="C298" t="s">
-        <v>90</v>
+        <v>374</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -6353,10 +6314,10 @@
         <v>31</v>
       </c>
       <c r="B299" t="s">
-        <v>594</v>
+        <v>289</v>
       </c>
       <c r="C299" t="s">
-        <v>92</v>
+        <v>376</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -6364,10 +6325,10 @@
         <v>31</v>
       </c>
       <c r="B300" t="s">
-        <v>93</v>
+        <v>291</v>
       </c>
       <c r="C300" t="s">
-        <v>94</v>
+        <v>378</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -6375,10 +6336,10 @@
         <v>31</v>
       </c>
       <c r="B301" t="s">
-        <v>95</v>
+        <v>659</v>
       </c>
       <c r="C301" t="s">
-        <v>96</v>
+        <v>380</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -6386,10 +6347,10 @@
         <v>31</v>
       </c>
       <c r="B302" t="s">
-        <v>101</v>
+        <v>660</v>
       </c>
       <c r="C302" t="s">
-        <v>595</v>
+        <v>382</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -6397,10 +6358,10 @@
         <v>31</v>
       </c>
       <c r="B303" t="s">
-        <v>89</v>
+        <v>293</v>
       </c>
       <c r="C303" t="s">
-        <v>98</v>
+        <v>385</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -6408,10 +6369,10 @@
         <v>31</v>
       </c>
       <c r="B304" t="s">
-        <v>208</v>
+        <v>661</v>
       </c>
       <c r="C304" t="s">
-        <v>100</v>
+        <v>387</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -6419,10 +6380,10 @@
         <v>31</v>
       </c>
       <c r="B305" t="s">
-        <v>215</v>
+        <v>662</v>
       </c>
       <c r="C305" t="s">
-        <v>102</v>
+        <v>389</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -6430,10 +6391,10 @@
         <v>31</v>
       </c>
       <c r="B306" t="s">
-        <v>97</v>
+        <v>239</v>
       </c>
       <c r="C306" t="s">
-        <v>104</v>
+        <v>391</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -6441,10 +6402,10 @@
         <v>31</v>
       </c>
       <c r="B307" t="s">
-        <v>596</v>
+        <v>663</v>
       </c>
       <c r="C307" t="s">
-        <v>106</v>
+        <v>393</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -6452,10 +6413,10 @@
         <v>31</v>
       </c>
       <c r="B308" t="s">
-        <v>597</v>
+        <v>664</v>
       </c>
       <c r="C308" t="s">
-        <v>598</v>
+        <v>395</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -6463,10 +6424,10 @@
         <v>31</v>
       </c>
       <c r="B309" t="s">
-        <v>232</v>
+        <v>149</v>
       </c>
       <c r="C309" t="s">
-        <v>599</v>
+        <v>397</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -6474,10 +6435,10 @@
         <v>31</v>
       </c>
       <c r="B310" t="s">
-        <v>127</v>
+        <v>665</v>
       </c>
       <c r="C310" t="s">
-        <v>108</v>
+        <v>399</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -6485,10 +6446,10 @@
         <v>31</v>
       </c>
       <c r="B311" t="s">
-        <v>264</v>
+        <v>666</v>
       </c>
       <c r="C311" t="s">
-        <v>110</v>
+        <v>401</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -6496,10 +6457,10 @@
         <v>31</v>
       </c>
       <c r="B312" t="s">
-        <v>600</v>
+        <v>522</v>
       </c>
       <c r="C312" t="s">
-        <v>112</v>
+        <v>403</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -6507,10 +6468,10 @@
         <v>31</v>
       </c>
       <c r="B313" t="s">
-        <v>601</v>
+        <v>667</v>
       </c>
       <c r="C313" t="s">
-        <v>114</v>
+        <v>405</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -6518,10 +6479,10 @@
         <v>31</v>
       </c>
       <c r="B314" t="s">
-        <v>602</v>
+        <v>300</v>
       </c>
       <c r="C314" t="s">
-        <v>116</v>
+        <v>407</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -6529,10 +6490,10 @@
         <v>31</v>
       </c>
       <c r="B315" t="s">
-        <v>603</v>
+        <v>303</v>
       </c>
       <c r="C315" t="s">
-        <v>118</v>
+        <v>408</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -6540,10 +6501,10 @@
         <v>31</v>
       </c>
       <c r="B316" t="s">
-        <v>604</v>
+        <v>307</v>
       </c>
       <c r="C316" t="s">
-        <v>120</v>
+        <v>410</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -6551,10 +6512,10 @@
         <v>31</v>
       </c>
       <c r="B317" t="s">
-        <v>190</v>
+        <v>309</v>
       </c>
       <c r="C317" t="s">
-        <v>122</v>
+        <v>412</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -6562,10 +6523,10 @@
         <v>31</v>
       </c>
       <c r="B318" t="s">
-        <v>262</v>
+        <v>668</v>
       </c>
       <c r="C318" t="s">
-        <v>126</v>
+        <v>414</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -6573,10 +6534,10 @@
         <v>31</v>
       </c>
       <c r="B319" t="s">
-        <v>605</v>
+        <v>312</v>
       </c>
       <c r="C319" t="s">
-        <v>128</v>
+        <v>416</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -6584,10 +6545,10 @@
         <v>31</v>
       </c>
       <c r="B320" t="s">
-        <v>606</v>
+        <v>669</v>
       </c>
       <c r="C320" t="s">
-        <v>130</v>
+        <v>418</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -6595,10 +6556,10 @@
         <v>31</v>
       </c>
       <c r="B321" t="s">
-        <v>121</v>
+        <v>670</v>
       </c>
       <c r="C321" t="s">
-        <v>132</v>
+        <v>420</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -6606,10 +6567,10 @@
         <v>31</v>
       </c>
       <c r="B322" t="s">
-        <v>607</v>
+        <v>671</v>
       </c>
       <c r="C322" t="s">
-        <v>134</v>
+        <v>421</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -6617,10 +6578,10 @@
         <v>31</v>
       </c>
       <c r="B323" t="s">
-        <v>141</v>
+        <v>672</v>
       </c>
       <c r="C323" t="s">
-        <v>136</v>
+        <v>423</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -6628,10 +6589,10 @@
         <v>31</v>
       </c>
       <c r="B324" t="s">
-        <v>129</v>
+        <v>315</v>
       </c>
       <c r="C324" t="s">
-        <v>138</v>
+        <v>425</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -6639,10 +6600,10 @@
         <v>31</v>
       </c>
       <c r="B325" t="s">
-        <v>384</v>
+        <v>182</v>
       </c>
       <c r="C325" t="s">
-        <v>142</v>
+        <v>427</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -6650,10 +6611,10 @@
         <v>31</v>
       </c>
       <c r="B326" t="s">
-        <v>91</v>
+        <v>184</v>
       </c>
       <c r="C326" t="s">
-        <v>144</v>
+        <v>429</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -6661,10 +6622,10 @@
         <v>31</v>
       </c>
       <c r="B327" t="s">
-        <v>169</v>
+        <v>317</v>
       </c>
       <c r="C327" t="s">
-        <v>146</v>
+        <v>431</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -6672,10 +6633,10 @@
         <v>31</v>
       </c>
       <c r="B328" t="s">
-        <v>167</v>
+        <v>673</v>
       </c>
       <c r="C328" t="s">
-        <v>148</v>
+        <v>433</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -6683,10 +6644,10 @@
         <v>31</v>
       </c>
       <c r="B329" t="s">
-        <v>137</v>
+        <v>319</v>
       </c>
       <c r="C329" t="s">
-        <v>150</v>
+        <v>435</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -6694,10 +6655,10 @@
         <v>31</v>
       </c>
       <c r="B330" t="s">
-        <v>608</v>
+        <v>120</v>
       </c>
       <c r="C330" t="s">
-        <v>152</v>
+        <v>436</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -6705,10 +6666,10 @@
         <v>31</v>
       </c>
       <c r="B331" t="s">
-        <v>609</v>
+        <v>321</v>
       </c>
       <c r="C331" t="s">
-        <v>154</v>
+        <v>438</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -6716,10 +6677,10 @@
         <v>31</v>
       </c>
       <c r="B332" t="s">
-        <v>610</v>
+        <v>674</v>
       </c>
       <c r="C332" t="s">
-        <v>156</v>
+        <v>440</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -6727,10 +6688,10 @@
         <v>31</v>
       </c>
       <c r="B333" t="s">
-        <v>611</v>
+        <v>675</v>
       </c>
       <c r="C333" t="s">
-        <v>158</v>
+        <v>442</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -6738,10 +6699,10 @@
         <v>31</v>
       </c>
       <c r="B334" t="s">
-        <v>612</v>
+        <v>324</v>
       </c>
       <c r="C334" t="s">
-        <v>160</v>
+        <v>444</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -6749,10 +6710,10 @@
         <v>31</v>
       </c>
       <c r="B335" t="s">
-        <v>613</v>
+        <v>327</v>
       </c>
       <c r="C335" t="s">
-        <v>162</v>
+        <v>446</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -6760,10 +6721,10 @@
         <v>31</v>
       </c>
       <c r="B336" t="s">
-        <v>614</v>
+        <v>329</v>
       </c>
       <c r="C336" t="s">
-        <v>164</v>
+        <v>448</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -6771,10 +6732,10 @@
         <v>31</v>
       </c>
       <c r="B337" t="s">
-        <v>615</v>
+        <v>676</v>
       </c>
       <c r="C337" t="s">
-        <v>166</v>
+        <v>450</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -6782,10 +6743,10 @@
         <v>31</v>
       </c>
       <c r="B338" t="s">
-        <v>477</v>
+        <v>677</v>
       </c>
       <c r="C338" t="s">
-        <v>168</v>
+        <v>452</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -6793,10 +6754,10 @@
         <v>31</v>
       </c>
       <c r="B339" t="s">
-        <v>616</v>
+        <v>678</v>
       </c>
       <c r="C339" t="s">
-        <v>170</v>
+        <v>454</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -6804,10 +6765,10 @@
         <v>31</v>
       </c>
       <c r="B340" t="s">
-        <v>617</v>
+        <v>679</v>
       </c>
       <c r="C340" t="s">
-        <v>172</v>
+        <v>456</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -6815,10 +6776,10 @@
         <v>31</v>
       </c>
       <c r="B341" t="s">
-        <v>618</v>
+        <v>680</v>
       </c>
       <c r="C341" t="s">
-        <v>174</v>
+        <v>458</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -6826,10 +6787,10 @@
         <v>31</v>
       </c>
       <c r="B342" t="s">
-        <v>619</v>
+        <v>681</v>
       </c>
       <c r="C342" t="s">
-        <v>176</v>
+        <v>460</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -6837,10 +6798,10 @@
         <v>31</v>
       </c>
       <c r="B343" t="s">
-        <v>620</v>
+        <v>332</v>
       </c>
       <c r="C343" t="s">
-        <v>178</v>
+        <v>461</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -6848,10 +6809,10 @@
         <v>31</v>
       </c>
       <c r="B344" t="s">
-        <v>621</v>
+        <v>682</v>
       </c>
       <c r="C344" t="s">
-        <v>180</v>
+        <v>463</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -6859,10 +6820,10 @@
         <v>31</v>
       </c>
       <c r="B345" t="s">
-        <v>622</v>
+        <v>683</v>
       </c>
       <c r="C345" t="s">
-        <v>182</v>
+        <v>465</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -6870,10 +6831,10 @@
         <v>31</v>
       </c>
       <c r="B346" t="s">
-        <v>623</v>
+        <v>336</v>
       </c>
       <c r="C346" t="s">
-        <v>186</v>
+        <v>467</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -6881,10 +6842,10 @@
         <v>31</v>
       </c>
       <c r="B347" t="s">
-        <v>251</v>
+        <v>684</v>
       </c>
       <c r="C347" t="s">
-        <v>188</v>
+        <v>469</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -6892,10 +6853,10 @@
         <v>31</v>
       </c>
       <c r="B348" t="s">
-        <v>99</v>
+        <v>338</v>
       </c>
       <c r="C348" t="s">
-        <v>189</v>
+        <v>471</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -6903,10 +6864,10 @@
         <v>31</v>
       </c>
       <c r="B349" t="s">
-        <v>127</v>
+        <v>340</v>
       </c>
       <c r="C349" t="s">
-        <v>191</v>
+        <v>473</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -6914,10 +6875,10 @@
         <v>31</v>
       </c>
       <c r="B350" t="s">
-        <v>624</v>
+        <v>685</v>
       </c>
       <c r="C350" t="s">
-        <v>193</v>
+        <v>475</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -6925,10 +6886,10 @@
         <v>31</v>
       </c>
       <c r="B351" t="s">
-        <v>625</v>
+        <v>686</v>
       </c>
       <c r="C351" t="s">
-        <v>195</v>
+        <v>477</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -6936,10 +6897,10 @@
         <v>31</v>
       </c>
       <c r="B352" t="s">
-        <v>103</v>
+        <v>687</v>
       </c>
       <c r="C352" t="s">
-        <v>197</v>
+        <v>479</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -6947,10 +6908,10 @@
         <v>31</v>
       </c>
       <c r="B353" t="s">
-        <v>626</v>
+        <v>173</v>
       </c>
       <c r="C353" t="s">
-        <v>199</v>
+        <v>481</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -6958,10 +6919,10 @@
         <v>31</v>
       </c>
       <c r="B354" t="s">
-        <v>627</v>
+        <v>688</v>
       </c>
       <c r="C354" t="s">
-        <v>201</v>
+        <v>483</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -6969,10 +6930,10 @@
         <v>31</v>
       </c>
       <c r="B355" t="s">
-        <v>628</v>
+        <v>348</v>
       </c>
       <c r="C355" t="s">
-        <v>203</v>
+        <v>485</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -6980,10 +6941,10 @@
         <v>31</v>
       </c>
       <c r="B356" t="s">
-        <v>169</v>
+        <v>689</v>
       </c>
       <c r="C356" t="s">
-        <v>205</v>
+        <v>487</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -6991,10 +6952,10 @@
         <v>31</v>
       </c>
       <c r="B357" t="s">
-        <v>629</v>
+        <v>690</v>
       </c>
       <c r="C357" t="s">
-        <v>207</v>
+        <v>489</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -7002,10 +6963,10 @@
         <v>31</v>
       </c>
       <c r="B358" t="s">
-        <v>630</v>
+        <v>691</v>
       </c>
       <c r="C358" t="s">
-        <v>209</v>
+        <v>491</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -7013,10 +6974,10 @@
         <v>31</v>
       </c>
       <c r="B359" t="s">
-        <v>631</v>
+        <v>692</v>
       </c>
       <c r="C359" t="s">
-        <v>210</v>
+        <v>493</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -7024,10 +6985,10 @@
         <v>31</v>
       </c>
       <c r="B360" t="s">
-        <v>632</v>
+        <v>693</v>
       </c>
       <c r="C360" t="s">
-        <v>212</v>
+        <v>495</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -7035,10 +6996,10 @@
         <v>31</v>
       </c>
       <c r="B361" t="s">
-        <v>633</v>
+        <v>350</v>
       </c>
       <c r="C361" t="s">
-        <v>214</v>
+        <v>497</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -7046,10 +7007,10 @@
         <v>31</v>
       </c>
       <c r="B362" t="s">
-        <v>634</v>
+        <v>694</v>
       </c>
       <c r="C362" t="s">
-        <v>216</v>
+        <v>499</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -7057,10 +7018,10 @@
         <v>31</v>
       </c>
       <c r="B363" t="s">
-        <v>635</v>
+        <v>352</v>
       </c>
       <c r="C363" t="s">
-        <v>218</v>
+        <v>501</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -7068,10 +7029,10 @@
         <v>31</v>
       </c>
       <c r="B364" t="s">
-        <v>636</v>
+        <v>354</v>
       </c>
       <c r="C364" t="s">
-        <v>220</v>
+        <v>503</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -7079,10 +7040,10 @@
         <v>31</v>
       </c>
       <c r="B365" t="s">
-        <v>185</v>
+        <v>695</v>
       </c>
       <c r="C365" t="s">
-        <v>222</v>
+        <v>505</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -7090,10 +7051,10 @@
         <v>31</v>
       </c>
       <c r="B366" t="s">
-        <v>637</v>
+        <v>696</v>
       </c>
       <c r="C366" t="s">
-        <v>224</v>
+        <v>507</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -7101,10 +7062,10 @@
         <v>31</v>
       </c>
       <c r="B367" t="s">
-        <v>638</v>
+        <v>697</v>
       </c>
       <c r="C367" t="s">
-        <v>226</v>
+        <v>509</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -7112,10 +7073,10 @@
         <v>31</v>
       </c>
       <c r="B368" t="s">
-        <v>639</v>
+        <v>359</v>
       </c>
       <c r="C368" t="s">
-        <v>227</v>
+        <v>511</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -7123,10 +7084,10 @@
         <v>31</v>
       </c>
       <c r="B369" t="s">
-        <v>640</v>
+        <v>361</v>
       </c>
       <c r="C369" t="s">
-        <v>229</v>
+        <v>513</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
@@ -7134,10 +7095,10 @@
         <v>31</v>
       </c>
       <c r="B370" t="s">
-        <v>641</v>
+        <v>363</v>
       </c>
       <c r="C370" t="s">
-        <v>231</v>
+        <v>515</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -7145,10 +7106,10 @@
         <v>31</v>
       </c>
       <c r="B371" t="s">
-        <v>109</v>
+        <v>365</v>
       </c>
       <c r="C371" t="s">
-        <v>233</v>
+        <v>517</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -7156,10 +7117,10 @@
         <v>31</v>
       </c>
       <c r="B372" t="s">
-        <v>198</v>
+        <v>367</v>
       </c>
       <c r="C372" t="s">
-        <v>235</v>
+        <v>519</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -7167,10 +7128,10 @@
         <v>31</v>
       </c>
       <c r="B373" t="s">
-        <v>642</v>
+        <v>453</v>
       </c>
       <c r="C373" t="s">
-        <v>237</v>
+        <v>521</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
@@ -7178,10 +7139,10 @@
         <v>31</v>
       </c>
       <c r="B374" t="s">
-        <v>643</v>
+        <v>698</v>
       </c>
       <c r="C374" t="s">
-        <v>238</v>
+        <v>523</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -7189,10 +7150,10 @@
         <v>31</v>
       </c>
       <c r="B375" t="s">
-        <v>202</v>
+        <v>699</v>
       </c>
       <c r="C375" t="s">
-        <v>240</v>
+        <v>525</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -7200,10 +7161,10 @@
         <v>31</v>
       </c>
       <c r="B376" t="s">
-        <v>204</v>
+        <v>700</v>
       </c>
       <c r="C376" t="s">
-        <v>242</v>
+        <v>527</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -7211,10 +7172,10 @@
         <v>31</v>
       </c>
       <c r="B377" t="s">
-        <v>644</v>
+        <v>371</v>
       </c>
       <c r="C377" t="s">
-        <v>244</v>
+        <v>529</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -7222,10 +7183,10 @@
         <v>31</v>
       </c>
       <c r="B378" t="s">
-        <v>206</v>
+        <v>373</v>
       </c>
       <c r="C378" t="s">
-        <v>246</v>
+        <v>531</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -7233,10 +7194,10 @@
         <v>31</v>
       </c>
       <c r="B379" t="s">
-        <v>173</v>
+        <v>701</v>
       </c>
       <c r="C379" t="s">
-        <v>248</v>
+        <v>533</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -7244,10 +7205,10 @@
         <v>31</v>
       </c>
       <c r="B380" t="s">
-        <v>368</v>
+        <v>702</v>
       </c>
       <c r="C380" t="s">
-        <v>250</v>
+        <v>535</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -7255,10 +7216,10 @@
         <v>31</v>
       </c>
       <c r="B381" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="C381" t="s">
-        <v>252</v>
+        <v>536</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -7266,10 +7227,10 @@
         <v>31</v>
       </c>
       <c r="B382" t="s">
-        <v>645</v>
+        <v>703</v>
       </c>
       <c r="C382" t="s">
-        <v>254</v>
+        <v>538</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -7277,10 +7238,10 @@
         <v>31</v>
       </c>
       <c r="B383" t="s">
-        <v>426</v>
+        <v>704</v>
       </c>
       <c r="C383" t="s">
-        <v>256</v>
+        <v>540</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -7288,10 +7249,10 @@
         <v>31</v>
       </c>
       <c r="B384" t="s">
-        <v>646</v>
+        <v>375</v>
       </c>
       <c r="C384" t="s">
-        <v>258</v>
+        <v>542</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -7299,10 +7260,10 @@
         <v>31</v>
       </c>
       <c r="B385" t="s">
-        <v>647</v>
+        <v>377</v>
       </c>
       <c r="C385" t="s">
-        <v>260</v>
+        <v>544</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -7310,10 +7271,10 @@
         <v>31</v>
       </c>
       <c r="B386" t="s">
-        <v>113</v>
+        <v>379</v>
       </c>
       <c r="C386" t="s">
-        <v>261</v>
+        <v>546</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -7321,10 +7282,10 @@
         <v>31</v>
       </c>
       <c r="B387" t="s">
-        <v>241</v>
+        <v>381</v>
       </c>
       <c r="C387" t="s">
-        <v>263</v>
+        <v>548</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -7332,10 +7293,10 @@
         <v>31</v>
       </c>
       <c r="B388" t="s">
-        <v>167</v>
+        <v>383</v>
       </c>
       <c r="C388" t="s">
-        <v>265</v>
+        <v>550</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -7343,10 +7304,10 @@
         <v>31</v>
       </c>
       <c r="B389" t="s">
-        <v>648</v>
+        <v>384</v>
       </c>
       <c r="C389" t="s">
-        <v>267</v>
+        <v>552</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -7354,10 +7315,10 @@
         <v>31</v>
       </c>
       <c r="B390" t="s">
-        <v>649</v>
+        <v>386</v>
       </c>
       <c r="C390" t="s">
-        <v>269</v>
+        <v>554</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -7365,10 +7326,10 @@
         <v>31</v>
       </c>
       <c r="B391" t="s">
-        <v>650</v>
+        <v>388</v>
       </c>
       <c r="C391" t="s">
-        <v>271</v>
+        <v>556</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -7376,10 +7337,10 @@
         <v>31</v>
       </c>
       <c r="B392" t="s">
-        <v>247</v>
+        <v>390</v>
       </c>
       <c r="C392" t="s">
-        <v>273</v>
+        <v>558</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -7387,10 +7348,10 @@
         <v>31</v>
       </c>
       <c r="B393" t="s">
-        <v>651</v>
+        <v>705</v>
       </c>
       <c r="C393" t="s">
-        <v>275</v>
+        <v>560</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -7398,10 +7359,10 @@
         <v>31</v>
       </c>
       <c r="B394" t="s">
-        <v>652</v>
+        <v>394</v>
       </c>
       <c r="C394" t="s">
-        <v>277</v>
+        <v>561</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -7409,10 +7370,10 @@
         <v>31</v>
       </c>
       <c r="B395" t="s">
-        <v>131</v>
+        <v>396</v>
       </c>
       <c r="C395" t="s">
-        <v>279</v>
+        <v>706</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -7420,10 +7381,10 @@
         <v>31</v>
       </c>
       <c r="B396" t="s">
-        <v>653</v>
+        <v>398</v>
       </c>
       <c r="C396" t="s">
-        <v>281</v>
+        <v>707</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -7431,10 +7392,10 @@
         <v>31</v>
       </c>
       <c r="B397" t="s">
-        <v>654</v>
+        <v>708</v>
       </c>
       <c r="C397" t="s">
-        <v>283</v>
+        <v>709</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -7442,10 +7403,10 @@
         <v>31</v>
       </c>
       <c r="B398" t="s">
-        <v>655</v>
+        <v>400</v>
       </c>
       <c r="C398" t="s">
-        <v>285</v>
+        <v>710</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -7453,10 +7414,10 @@
         <v>31</v>
       </c>
       <c r="B399" t="s">
-        <v>228</v>
+        <v>711</v>
       </c>
       <c r="C399" t="s">
-        <v>287</v>
+        <v>712</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -7464,10 +7425,10 @@
         <v>31</v>
       </c>
       <c r="B400" t="s">
-        <v>656</v>
+        <v>713</v>
       </c>
       <c r="C400" t="s">
-        <v>289</v>
+        <v>714</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -7475,10 +7436,10 @@
         <v>31</v>
       </c>
       <c r="B401" t="s">
-        <v>657</v>
+        <v>404</v>
       </c>
       <c r="C401" t="s">
-        <v>291</v>
+        <v>715</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -7486,10 +7447,10 @@
         <v>31</v>
       </c>
       <c r="B402" t="s">
-        <v>658</v>
+        <v>406</v>
       </c>
       <c r="C402" t="s">
-        <v>293</v>
+        <v>716</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -7497,10 +7458,10 @@
         <v>31</v>
       </c>
       <c r="B403" t="s">
-        <v>659</v>
+        <v>717</v>
       </c>
       <c r="C403" t="s">
-        <v>295</v>
+        <v>718</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -7508,10 +7469,10 @@
         <v>31</v>
       </c>
       <c r="B404" t="s">
-        <v>648</v>
+        <v>719</v>
       </c>
       <c r="C404" t="s">
-        <v>297</v>
+        <v>720</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -7519,10 +7480,10 @@
         <v>31</v>
       </c>
       <c r="B405" t="s">
-        <v>660</v>
+        <v>409</v>
       </c>
       <c r="C405" t="s">
-        <v>299</v>
+        <v>721</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -7530,10 +7491,10 @@
         <v>31</v>
       </c>
       <c r="B406" t="s">
-        <v>661</v>
+        <v>722</v>
       </c>
       <c r="C406" t="s">
-        <v>301</v>
+        <v>723</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -7541,10 +7502,10 @@
         <v>31</v>
       </c>
       <c r="B407" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
       <c r="C407" t="s">
-        <v>303</v>
+        <v>724</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -7552,10 +7513,10 @@
         <v>31</v>
       </c>
       <c r="B408" t="s">
-        <v>243</v>
+        <v>413</v>
       </c>
       <c r="C408" t="s">
-        <v>305</v>
+        <v>725</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -7563,10 +7524,10 @@
         <v>31</v>
       </c>
       <c r="B409" t="s">
-        <v>662</v>
+        <v>415</v>
       </c>
       <c r="C409" t="s">
-        <v>307</v>
+        <v>726</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -7574,10 +7535,10 @@
         <v>31</v>
       </c>
       <c r="B410" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="C410" t="s">
-        <v>309</v>
+        <v>727</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -7585,10 +7546,10 @@
         <v>31</v>
       </c>
       <c r="B411" t="s">
-        <v>663</v>
+        <v>419</v>
       </c>
       <c r="C411" t="s">
-        <v>311</v>
+        <v>728</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -7596,10 +7557,10 @@
         <v>31</v>
       </c>
       <c r="B412" t="s">
-        <v>664</v>
+        <v>729</v>
       </c>
       <c r="C412" t="s">
-        <v>313</v>
+        <v>730</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -7607,10 +7568,10 @@
         <v>31</v>
       </c>
       <c r="B413" t="s">
-        <v>665</v>
+        <v>731</v>
       </c>
       <c r="C413" t="s">
-        <v>315</v>
+        <v>732</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -7618,10 +7579,10 @@
         <v>31</v>
       </c>
       <c r="B414" t="s">
-        <v>666</v>
+        <v>733</v>
       </c>
       <c r="C414" t="s">
-        <v>317</v>
+        <v>734</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -7629,10 +7590,10 @@
         <v>31</v>
       </c>
       <c r="B415" t="s">
-        <v>667</v>
+        <v>735</v>
       </c>
       <c r="C415" t="s">
-        <v>319</v>
+        <v>736</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -7640,10 +7601,10 @@
         <v>31</v>
       </c>
       <c r="B416" t="s">
-        <v>668</v>
+        <v>684</v>
       </c>
       <c r="C416" t="s">
-        <v>669</v>
+        <v>737</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -7651,10 +7612,10 @@
         <v>31</v>
       </c>
       <c r="B417" t="s">
-        <v>670</v>
+        <v>738</v>
       </c>
       <c r="C417" t="s">
-        <v>321</v>
+        <v>739</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -7662,10 +7623,10 @@
         <v>31</v>
       </c>
       <c r="B418" t="s">
-        <v>239</v>
+        <v>422</v>
       </c>
       <c r="C418" t="s">
-        <v>323</v>
+        <v>740</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -7673,10 +7634,10 @@
         <v>31</v>
       </c>
       <c r="B419" t="s">
-        <v>671</v>
+        <v>424</v>
       </c>
       <c r="C419" t="s">
-        <v>325</v>
+        <v>741</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -7684,10 +7645,10 @@
         <v>31</v>
       </c>
       <c r="B420" t="s">
-        <v>157</v>
+        <v>426</v>
       </c>
       <c r="C420" t="s">
-        <v>327</v>
+        <v>742</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -7695,10 +7656,10 @@
         <v>31</v>
       </c>
       <c r="B421" t="s">
-        <v>672</v>
+        <v>428</v>
       </c>
       <c r="C421" t="s">
-        <v>329</v>
+        <v>743</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -7706,10 +7667,10 @@
         <v>31</v>
       </c>
       <c r="B422" t="s">
-        <v>266</v>
+        <v>430</v>
       </c>
       <c r="C422" t="s">
-        <v>331</v>
+        <v>744</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -7717,10 +7678,10 @@
         <v>31</v>
       </c>
       <c r="B423" t="s">
-        <v>673</v>
+        <v>432</v>
       </c>
       <c r="C423" t="s">
-        <v>333</v>
+        <v>745</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -7728,10 +7689,10 @@
         <v>31</v>
       </c>
       <c r="B424" t="s">
-        <v>230</v>
+        <v>434</v>
       </c>
       <c r="C424" t="s">
-        <v>335</v>
+        <v>746</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -7739,10 +7700,10 @@
         <v>31</v>
       </c>
       <c r="B425" t="s">
-        <v>674</v>
+        <v>279</v>
       </c>
       <c r="C425" t="s">
-        <v>337</v>
+        <v>747</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -7750,10 +7711,10 @@
         <v>31</v>
       </c>
       <c r="B426" t="s">
-        <v>268</v>
+        <v>437</v>
       </c>
       <c r="C426" t="s">
-        <v>339</v>
+        <v>748</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -7761,10 +7722,10 @@
         <v>31</v>
       </c>
       <c r="B427" t="s">
-        <v>675</v>
+        <v>439</v>
       </c>
       <c r="C427" t="s">
-        <v>341</v>
+        <v>749</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -7772,10 +7733,10 @@
         <v>31</v>
       </c>
       <c r="B428" t="s">
-        <v>676</v>
+        <v>295</v>
       </c>
       <c r="C428" t="s">
-        <v>343</v>
+        <v>750</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
@@ -7783,10 +7744,10 @@
         <v>31</v>
       </c>
       <c r="B429" t="s">
-        <v>274</v>
+        <v>441</v>
       </c>
       <c r="C429" t="s">
-        <v>345</v>
+        <v>751</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
@@ -7794,10 +7755,10 @@
         <v>31</v>
       </c>
       <c r="B430" t="s">
-        <v>677</v>
+        <v>443</v>
       </c>
       <c r="C430" t="s">
-        <v>347</v>
+        <v>752</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -7805,10 +7766,10 @@
         <v>31</v>
       </c>
       <c r="B431" t="s">
-        <v>278</v>
+        <v>445</v>
       </c>
       <c r="C431" t="s">
-        <v>349</v>
+        <v>753</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -7816,10 +7777,10 @@
         <v>31</v>
       </c>
       <c r="B432" t="s">
-        <v>280</v>
+        <v>447</v>
       </c>
       <c r="C432" t="s">
-        <v>351</v>
+        <v>754</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -7827,10 +7788,10 @@
         <v>31</v>
       </c>
       <c r="B433" t="s">
-        <v>678</v>
+        <v>449</v>
       </c>
       <c r="C433" t="s">
-        <v>353</v>
+        <v>755</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
@@ -7838,10 +7799,10 @@
         <v>31</v>
       </c>
       <c r="B434" t="s">
-        <v>284</v>
+        <v>451</v>
       </c>
       <c r="C434" t="s">
-        <v>355</v>
+        <v>756</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
@@ -7849,10 +7810,10 @@
         <v>31</v>
       </c>
       <c r="B435" t="s">
-        <v>286</v>
+        <v>453</v>
       </c>
       <c r="C435" t="s">
-        <v>357</v>
+        <v>757</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
@@ -7860,10 +7821,10 @@
         <v>31</v>
       </c>
       <c r="B436" t="s">
-        <v>679</v>
+        <v>455</v>
       </c>
       <c r="C436" t="s">
-        <v>359</v>
+        <v>758</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
@@ -7871,10 +7832,10 @@
         <v>31</v>
       </c>
       <c r="B437" t="s">
-        <v>680</v>
+        <v>759</v>
       </c>
       <c r="C437" t="s">
-        <v>361</v>
+        <v>760</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -7882,10 +7843,10 @@
         <v>31</v>
       </c>
       <c r="B438" t="s">
-        <v>681</v>
+        <v>457</v>
       </c>
       <c r="C438" t="s">
-        <v>363</v>
+        <v>761</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
@@ -7893,10 +7854,10 @@
         <v>31</v>
       </c>
       <c r="B439" t="s">
-        <v>682</v>
+        <v>459</v>
       </c>
       <c r="C439" t="s">
-        <v>365</v>
+        <v>762</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
@@ -7904,10 +7865,10 @@
         <v>31</v>
       </c>
       <c r="B440" t="s">
-        <v>683</v>
+        <v>462</v>
       </c>
       <c r="C440" t="s">
-        <v>367</v>
+        <v>763</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
@@ -7915,10 +7876,10 @@
         <v>31</v>
       </c>
       <c r="B441" t="s">
-        <v>290</v>
+        <v>464</v>
       </c>
       <c r="C441" t="s">
-        <v>369</v>
+        <v>764</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
@@ -7926,10 +7887,10 @@
         <v>31</v>
       </c>
       <c r="B442" t="s">
-        <v>292</v>
+        <v>466</v>
       </c>
       <c r="C442" t="s">
-        <v>371</v>
+        <v>765</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
@@ -7937,10 +7898,10 @@
         <v>31</v>
       </c>
       <c r="B443" t="s">
-        <v>684</v>
+        <v>468</v>
       </c>
       <c r="C443" t="s">
-        <v>373</v>
+        <v>766</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -7948,10 +7909,10 @@
         <v>31</v>
       </c>
       <c r="B444" t="s">
-        <v>326</v>
+        <v>470</v>
       </c>
       <c r="C444" t="s">
-        <v>375</v>
+        <v>767</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
@@ -7959,10 +7920,10 @@
         <v>31</v>
       </c>
       <c r="B445" t="s">
-        <v>685</v>
+        <v>768</v>
       </c>
       <c r="C445" t="s">
-        <v>377</v>
+        <v>769</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
@@ -7970,10 +7931,10 @@
         <v>31</v>
       </c>
       <c r="B446" t="s">
-        <v>686</v>
+        <v>770</v>
       </c>
       <c r="C446" t="s">
-        <v>379</v>
+        <v>771</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
@@ -7981,10 +7942,10 @@
         <v>31</v>
       </c>
       <c r="B447" t="s">
-        <v>296</v>
+        <v>472</v>
       </c>
       <c r="C447" t="s">
-        <v>381</v>
+        <v>772</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -7992,10 +7953,10 @@
         <v>31</v>
       </c>
       <c r="B448" t="s">
-        <v>687</v>
+        <v>474</v>
       </c>
       <c r="C448" t="s">
-        <v>383</v>
+        <v>773</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -8003,10 +7964,10 @@
         <v>31</v>
       </c>
       <c r="B449" t="s">
-        <v>298</v>
+        <v>476</v>
       </c>
       <c r="C449" t="s">
-        <v>385</v>
+        <v>774</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -8014,10 +7975,10 @@
         <v>31</v>
       </c>
       <c r="B450" t="s">
-        <v>300</v>
+        <v>478</v>
       </c>
       <c r="C450" t="s">
-        <v>387</v>
+        <v>775</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
@@ -8025,10 +7986,10 @@
         <v>31</v>
       </c>
       <c r="B451" t="s">
-        <v>688</v>
+        <v>480</v>
       </c>
       <c r="C451" t="s">
-        <v>389</v>
+        <v>776</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
@@ -8036,10 +7997,10 @@
         <v>31</v>
       </c>
       <c r="B452" t="s">
-        <v>689</v>
+        <v>482</v>
       </c>
       <c r="C452" t="s">
-        <v>391</v>
+        <v>777</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -8047,10 +8008,10 @@
         <v>31</v>
       </c>
       <c r="B453" t="s">
-        <v>690</v>
+        <v>778</v>
       </c>
       <c r="C453" t="s">
-        <v>393</v>
+        <v>779</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
@@ -8058,10 +8019,10 @@
         <v>31</v>
       </c>
       <c r="B454" t="s">
-        <v>302</v>
+        <v>780</v>
       </c>
       <c r="C454" t="s">
-        <v>395</v>
+        <v>781</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
@@ -8069,10 +8030,10 @@
         <v>31</v>
       </c>
       <c r="B455" t="s">
-        <v>270</v>
+        <v>484</v>
       </c>
       <c r="C455" t="s">
-        <v>397</v>
+        <v>782</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
@@ -8080,10 +8041,10 @@
         <v>31</v>
       </c>
       <c r="B456" t="s">
-        <v>304</v>
+        <v>486</v>
       </c>
       <c r="C456" t="s">
-        <v>399</v>
+        <v>783</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -8091,10 +8052,10 @@
         <v>31</v>
       </c>
       <c r="B457" t="s">
-        <v>306</v>
+        <v>488</v>
       </c>
       <c r="C457" t="s">
-        <v>401</v>
+        <v>784</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
@@ -8102,10 +8063,10 @@
         <v>31</v>
       </c>
       <c r="B458" t="s">
-        <v>308</v>
+        <v>490</v>
       </c>
       <c r="C458" t="s">
-        <v>403</v>
+        <v>785</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
@@ -8113,10 +8074,10 @@
         <v>31</v>
       </c>
       <c r="B459" t="s">
-        <v>310</v>
+        <v>492</v>
       </c>
       <c r="C459" t="s">
-        <v>405</v>
+        <v>786</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -8124,10 +8085,10 @@
         <v>31</v>
       </c>
       <c r="B460" t="s">
-        <v>691</v>
+        <v>494</v>
       </c>
       <c r="C460" t="s">
-        <v>407</v>
+        <v>787</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
@@ -8135,10 +8096,10 @@
         <v>31</v>
       </c>
       <c r="B461" t="s">
-        <v>692</v>
+        <v>496</v>
       </c>
       <c r="C461" t="s">
-        <v>409</v>
+        <v>788</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
@@ -8146,10 +8107,10 @@
         <v>31</v>
       </c>
       <c r="B462" t="s">
-        <v>312</v>
+        <v>498</v>
       </c>
       <c r="C462" t="s">
-        <v>413</v>
+        <v>789</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
@@ -8157,10 +8118,10 @@
         <v>31</v>
       </c>
       <c r="B463" t="s">
-        <v>693</v>
+        <v>500</v>
       </c>
       <c r="C463" t="s">
-        <v>415</v>
+        <v>790</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
@@ -8168,10 +8129,10 @@
         <v>31</v>
       </c>
       <c r="B464" t="s">
-        <v>694</v>
+        <v>502</v>
       </c>
       <c r="C464" t="s">
-        <v>417</v>
+        <v>791</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
@@ -8179,10 +8140,10 @@
         <v>31</v>
       </c>
       <c r="B465" t="s">
-        <v>257</v>
+        <v>504</v>
       </c>
       <c r="C465" t="s">
-        <v>419</v>
+        <v>792</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
@@ -8190,10 +8151,10 @@
         <v>31</v>
       </c>
       <c r="B466" t="s">
-        <v>695</v>
+        <v>506</v>
       </c>
       <c r="C466" t="s">
-        <v>421</v>
+        <v>793</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
@@ -8201,10 +8162,10 @@
         <v>31</v>
       </c>
       <c r="B467" t="s">
-        <v>696</v>
+        <v>241</v>
       </c>
       <c r="C467" t="s">
-        <v>423</v>
+        <v>794</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
@@ -8212,10 +8173,10 @@
         <v>31</v>
       </c>
       <c r="B468" t="s">
-        <v>155</v>
+        <v>508</v>
       </c>
       <c r="C468" t="s">
-        <v>425</v>
+        <v>795</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
@@ -8223,10 +8184,10 @@
         <v>31</v>
       </c>
       <c r="B469" t="s">
-        <v>697</v>
+        <v>796</v>
       </c>
       <c r="C469" t="s">
-        <v>427</v>
+        <v>797</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
@@ -8234,10 +8195,10 @@
         <v>31</v>
       </c>
       <c r="B470" t="s">
-        <v>698</v>
+        <v>510</v>
       </c>
       <c r="C470" t="s">
-        <v>429</v>
+        <v>798</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
@@ -8245,10 +8206,10 @@
         <v>31</v>
       </c>
       <c r="B471" t="s">
-        <v>553</v>
+        <v>799</v>
       </c>
       <c r="C471" t="s">
-        <v>431</v>
+        <v>800</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
@@ -8256,10 +8217,10 @@
         <v>31</v>
       </c>
       <c r="B472" t="s">
-        <v>699</v>
+        <v>801</v>
       </c>
       <c r="C472" t="s">
-        <v>433</v>
+        <v>802</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
@@ -8267,10 +8228,10 @@
         <v>31</v>
       </c>
       <c r="B473" t="s">
-        <v>320</v>
+        <v>512</v>
       </c>
       <c r="C473" t="s">
-        <v>435</v>
+        <v>803</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
@@ -8278,10 +8239,10 @@
         <v>31</v>
       </c>
       <c r="B474" t="s">
-        <v>324</v>
+        <v>514</v>
       </c>
       <c r="C474" t="s">
-        <v>437</v>
+        <v>804</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
@@ -8289,10 +8250,10 @@
         <v>31</v>
       </c>
       <c r="B475" t="s">
-        <v>328</v>
+        <v>516</v>
       </c>
       <c r="C475" t="s">
-        <v>439</v>
+        <v>805</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
@@ -8300,10 +8261,10 @@
         <v>31</v>
       </c>
       <c r="B476" t="s">
-        <v>330</v>
+        <v>518</v>
       </c>
       <c r="C476" t="s">
-        <v>441</v>
+        <v>806</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
@@ -8311,10 +8272,10 @@
         <v>31</v>
       </c>
       <c r="B477" t="s">
-        <v>700</v>
+        <v>520</v>
       </c>
       <c r="C477" t="s">
-        <v>443</v>
+        <v>807</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
@@ -8322,10 +8283,10 @@
         <v>31</v>
       </c>
       <c r="B478" t="s">
-        <v>334</v>
+        <v>522</v>
       </c>
       <c r="C478" t="s">
-        <v>445</v>
+        <v>808</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
@@ -8333,10 +8294,10 @@
         <v>31</v>
       </c>
       <c r="B479" t="s">
-        <v>701</v>
+        <v>809</v>
       </c>
       <c r="C479" t="s">
-        <v>447</v>
+        <v>810</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
@@ -8344,10 +8305,10 @@
         <v>31</v>
       </c>
       <c r="B480" t="s">
-        <v>702</v>
+        <v>524</v>
       </c>
       <c r="C480" t="s">
-        <v>449</v>
+        <v>811</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
@@ -8355,10 +8316,10 @@
         <v>31</v>
       </c>
       <c r="B481" t="s">
-        <v>703</v>
+        <v>528</v>
       </c>
       <c r="C481" t="s">
-        <v>451</v>
+        <v>812</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
@@ -8366,10 +8327,10 @@
         <v>31</v>
       </c>
       <c r="B482" t="s">
-        <v>704</v>
+        <v>530</v>
       </c>
       <c r="C482" t="s">
-        <v>453</v>
+        <v>813</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
@@ -8377,10 +8338,10 @@
         <v>31</v>
       </c>
       <c r="B483" t="s">
-        <v>338</v>
+        <v>532</v>
       </c>
       <c r="C483" t="s">
-        <v>455</v>
+        <v>814</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
@@ -8388,10 +8349,10 @@
         <v>31</v>
       </c>
       <c r="B484" t="s">
-        <v>194</v>
+        <v>534</v>
       </c>
       <c r="C484" t="s">
-        <v>457</v>
+        <v>815</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
@@ -8399,10 +8360,10 @@
         <v>31</v>
       </c>
       <c r="B485" t="s">
-        <v>196</v>
+        <v>816</v>
       </c>
       <c r="C485" t="s">
-        <v>459</v>
+        <v>817</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
@@ -8410,10 +8371,10 @@
         <v>31</v>
       </c>
       <c r="B486" t="s">
-        <v>340</v>
+        <v>537</v>
       </c>
       <c r="C486" t="s">
-        <v>461</v>
+        <v>818</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
@@ -8421,10 +8382,10 @@
         <v>31</v>
       </c>
       <c r="B487" t="s">
-        <v>705</v>
+        <v>539</v>
       </c>
       <c r="C487" t="s">
-        <v>463</v>
+        <v>819</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
@@ -8432,10 +8393,10 @@
         <v>31</v>
       </c>
       <c r="B488" t="s">
-        <v>342</v>
+        <v>541</v>
       </c>
       <c r="C488" t="s">
-        <v>465</v>
+        <v>820</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
@@ -8443,10 +8404,10 @@
         <v>31</v>
       </c>
       <c r="B489" t="s">
-        <v>125</v>
+        <v>543</v>
       </c>
       <c r="C489" t="s">
-        <v>466</v>
+        <v>821</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
@@ -8454,10 +8415,10 @@
         <v>31</v>
       </c>
       <c r="B490" t="s">
-        <v>344</v>
+        <v>167</v>
       </c>
       <c r="C490" t="s">
-        <v>468</v>
+        <v>822</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
@@ -8465,10 +8426,10 @@
         <v>31</v>
       </c>
       <c r="B491" t="s">
-        <v>706</v>
+        <v>545</v>
       </c>
       <c r="C491" t="s">
-        <v>470</v>
+        <v>823</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
@@ -8476,10 +8437,10 @@
         <v>31</v>
       </c>
       <c r="B492" t="s">
-        <v>707</v>
+        <v>547</v>
       </c>
       <c r="C492" t="s">
-        <v>472</v>
+        <v>824</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
@@ -8487,10 +8448,10 @@
         <v>31</v>
       </c>
       <c r="B493" t="s">
-        <v>348</v>
+        <v>825</v>
       </c>
       <c r="C493" t="s">
-        <v>474</v>
+        <v>826</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
@@ -8498,10 +8459,10 @@
         <v>31</v>
       </c>
       <c r="B494" t="s">
-        <v>352</v>
+        <v>520</v>
       </c>
       <c r="C494" t="s">
-        <v>476</v>
+        <v>827</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
@@ -8509,10 +8470,10 @@
         <v>31</v>
       </c>
       <c r="B495" t="s">
-        <v>354</v>
+        <v>828</v>
       </c>
       <c r="C495" t="s">
-        <v>478</v>
+        <v>829</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
@@ -8520,10 +8481,10 @@
         <v>31</v>
       </c>
       <c r="B496" t="s">
-        <v>708</v>
+        <v>551</v>
       </c>
       <c r="C496" t="s">
-        <v>480</v>
+        <v>830</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
@@ -8531,10 +8492,10 @@
         <v>31</v>
       </c>
       <c r="B497" t="s">
-        <v>709</v>
+        <v>553</v>
       </c>
       <c r="C497" t="s">
-        <v>482</v>
+        <v>831</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
@@ -8542,10 +8503,10 @@
         <v>31</v>
       </c>
       <c r="B498" t="s">
-        <v>710</v>
+        <v>555</v>
       </c>
       <c r="C498" t="s">
-        <v>484</v>
+        <v>832</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
@@ -8553,10 +8514,10 @@
         <v>31</v>
       </c>
       <c r="B499" t="s">
-        <v>711</v>
+        <v>557</v>
       </c>
       <c r="C499" t="s">
-        <v>486</v>
+        <v>833</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
@@ -8564,10 +8525,10 @@
         <v>31</v>
       </c>
       <c r="B500" t="s">
-        <v>712</v>
+        <v>559</v>
       </c>
       <c r="C500" t="s">
-        <v>488</v>
+        <v>834</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -8575,10 +8536,10 @@
         <v>31</v>
       </c>
       <c r="B501" t="s">
-        <v>713</v>
+        <v>518</v>
       </c>
       <c r="C501" t="s">
-        <v>490</v>
+        <v>835</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
@@ -8586,1979 +8547,296 @@
         <v>31</v>
       </c>
       <c r="B502" t="s">
-        <v>358</v>
+        <v>836</v>
       </c>
       <c r="C502" t="s">
-        <v>492</v>
+        <v>837</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B503" t="s">
-        <v>714</v>
-      </c>
-      <c r="C503" t="s">
-        <v>494</v>
+        <v>88</v>
+      </c>
+      <c r="B503" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C503" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B504" t="s">
-        <v>715</v>
-      </c>
-      <c r="C504" t="s">
-        <v>496</v>
+        <v>88</v>
+      </c>
+      <c r="B504" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C504" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B505" t="s">
-        <v>362</v>
-      </c>
-      <c r="C505" t="s">
-        <v>498</v>
+        <v>88</v>
+      </c>
+      <c r="B505" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C505" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B506" t="s">
-        <v>716</v>
-      </c>
-      <c r="C506" t="s">
-        <v>500</v>
+        <v>88</v>
+      </c>
+      <c r="B506" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C506" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B507" t="s">
-        <v>364</v>
-      </c>
-      <c r="C507" t="s">
-        <v>502</v>
+        <v>88</v>
+      </c>
+      <c r="B507" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C507" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B508" t="s">
-        <v>366</v>
-      </c>
-      <c r="C508" t="s">
-        <v>504</v>
+        <v>88</v>
+      </c>
+      <c r="B508" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C508" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B509" t="s">
-        <v>717</v>
-      </c>
-      <c r="C509" t="s">
-        <v>506</v>
+        <v>88</v>
+      </c>
+      <c r="B509" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C509" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B510" t="s">
-        <v>718</v>
-      </c>
-      <c r="C510" t="s">
-        <v>508</v>
+        <v>88</v>
+      </c>
+      <c r="B510" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C510" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B511" t="s">
-        <v>719</v>
-      </c>
-      <c r="C511" t="s">
-        <v>510</v>
+        <v>88</v>
+      </c>
+      <c r="B511" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C511" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B512" t="s">
-        <v>181</v>
-      </c>
-      <c r="C512" t="s">
-        <v>512</v>
+        <v>88</v>
+      </c>
+      <c r="B512" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C512" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B513" t="s">
-        <v>720</v>
-      </c>
-      <c r="C513" t="s">
-        <v>514</v>
+        <v>88</v>
+      </c>
+      <c r="B513" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C513" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B514" t="s">
-        <v>374</v>
-      </c>
-      <c r="C514" t="s">
-        <v>516</v>
+        <v>838</v>
+      </c>
+      <c r="B514" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C514" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B515" t="s">
-        <v>721</v>
-      </c>
-      <c r="C515" t="s">
-        <v>518</v>
+        <v>838</v>
+      </c>
+      <c r="B515" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="C515" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B516" t="s">
-        <v>722</v>
-      </c>
-      <c r="C516" t="s">
-        <v>520</v>
+        <v>838</v>
+      </c>
+      <c r="B516" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="C516" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B517" t="s">
-        <v>723</v>
-      </c>
-      <c r="C517" t="s">
-        <v>522</v>
+        <v>838</v>
+      </c>
+      <c r="B517" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="C517" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B518" t="s">
-        <v>724</v>
-      </c>
-      <c r="C518" t="s">
-        <v>524</v>
+        <v>61</v>
+      </c>
+      <c r="B518" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="C518" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B519" t="s">
-        <v>725</v>
-      </c>
-      <c r="C519" t="s">
-        <v>526</v>
+        <v>61</v>
+      </c>
+      <c r="B519" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="C519" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B520" t="s">
-        <v>376</v>
-      </c>
-      <c r="C520" t="s">
-        <v>528</v>
+        <v>61</v>
+      </c>
+      <c r="B520" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="C520" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B521" t="s">
-        <v>726</v>
-      </c>
-      <c r="C521" t="s">
-        <v>530</v>
+        <v>61</v>
+      </c>
+      <c r="B521" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="C521" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B522" t="s">
-        <v>378</v>
-      </c>
-      <c r="C522" t="s">
-        <v>532</v>
+        <v>61</v>
+      </c>
+      <c r="B522" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="C522" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B523" t="s">
-        <v>380</v>
-      </c>
-      <c r="C523" t="s">
-        <v>534</v>
+        <v>849</v>
+      </c>
+      <c r="B523" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="C523" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B524" t="s">
-        <v>727</v>
-      </c>
-      <c r="C524" t="s">
-        <v>536</v>
+        <v>849</v>
+      </c>
+      <c r="B524" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="C524" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B525" t="s">
-        <v>728</v>
-      </c>
-      <c r="C525" t="s">
-        <v>538</v>
+        <v>849</v>
+      </c>
+      <c r="B525" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="C525" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B526" t="s">
-        <v>729</v>
-      </c>
-      <c r="C526" t="s">
-        <v>540</v>
+        <v>849</v>
+      </c>
+      <c r="B526" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="C526" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B527" t="s">
-        <v>386</v>
-      </c>
-      <c r="C527" t="s">
-        <v>542</v>
+        <v>849</v>
+      </c>
+      <c r="B527" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="C527" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B528" t="s">
-        <v>388</v>
-      </c>
-      <c r="C528" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A529" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B529" t="s">
-        <v>390</v>
-      </c>
-      <c r="C529" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A530" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B530" t="s">
-        <v>392</v>
-      </c>
-      <c r="C530" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A531" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B531" t="s">
-        <v>394</v>
-      </c>
-      <c r="C531" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A532" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B532" t="s">
-        <v>483</v>
-      </c>
-      <c r="C532" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A533" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B533" t="s">
-        <v>730</v>
-      </c>
-      <c r="C533" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A534" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B534" t="s">
-        <v>731</v>
-      </c>
-      <c r="C534" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A535" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B535" t="s">
-        <v>732</v>
-      </c>
-      <c r="C535" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A536" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B536" t="s">
-        <v>398</v>
-      </c>
-      <c r="C536" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A537" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B537" t="s">
-        <v>400</v>
-      </c>
-      <c r="C537" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A538" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B538" t="s">
-        <v>733</v>
-      </c>
-      <c r="C538" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A539" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B539" t="s">
-        <v>734</v>
-      </c>
-      <c r="C539" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A540" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B540" t="s">
-        <v>105</v>
-      </c>
-      <c r="C540" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A541" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B541" t="s">
-        <v>735</v>
-      </c>
-      <c r="C541" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A542" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B542" t="s">
-        <v>736</v>
-      </c>
-      <c r="C542" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A543" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B543" t="s">
-        <v>402</v>
-      </c>
-      <c r="C543" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A544" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B544" t="s">
-        <v>404</v>
-      </c>
-      <c r="C544" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A545" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B545" t="s">
-        <v>406</v>
-      </c>
-      <c r="C545" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A546" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B546" t="s">
-        <v>408</v>
-      </c>
-      <c r="C546" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A547" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B547" t="s">
-        <v>410</v>
-      </c>
-      <c r="C547" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A548" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B548" t="s">
-        <v>412</v>
-      </c>
-      <c r="C548" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A549" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B549" t="s">
-        <v>414</v>
-      </c>
-      <c r="C549" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A550" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B550" t="s">
-        <v>416</v>
-      </c>
-      <c r="C550" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A551" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B551" t="s">
-        <v>418</v>
-      </c>
-      <c r="C551" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A552" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B552" t="s">
-        <v>737</v>
-      </c>
-      <c r="C552" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A553" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B553" t="s">
-        <v>422</v>
-      </c>
-      <c r="C553" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A554" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B554" t="s">
-        <v>424</v>
-      </c>
-      <c r="C554" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A555" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B555" t="s">
-        <v>426</v>
-      </c>
-      <c r="C555" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A556" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B556" t="s">
-        <v>740</v>
-      </c>
-      <c r="C556" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A557" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B557" t="s">
-        <v>428</v>
-      </c>
-      <c r="C557" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A558" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B558" t="s">
-        <v>743</v>
-      </c>
-      <c r="C558" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A559" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B559" t="s">
-        <v>745</v>
-      </c>
-      <c r="C559" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A560" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B560" t="s">
-        <v>432</v>
-      </c>
-      <c r="C560" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A561" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B561" t="s">
-        <v>434</v>
-      </c>
-      <c r="C561" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A562" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B562" t="s">
-        <v>749</v>
-      </c>
-      <c r="C562" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A563" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B563" t="s">
-        <v>751</v>
-      </c>
-      <c r="C563" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A564" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B564" t="s">
-        <v>438</v>
-      </c>
-      <c r="C564" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A565" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B565" t="s">
-        <v>754</v>
-      </c>
-      <c r="C565" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A566" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B566" t="s">
-        <v>440</v>
-      </c>
-      <c r="C566" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A567" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B567" t="s">
-        <v>442</v>
-      </c>
-      <c r="C567" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A568" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B568" t="s">
-        <v>444</v>
-      </c>
-      <c r="C568" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A569" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B569" t="s">
-        <v>446</v>
-      </c>
-      <c r="C569" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A570" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B570" t="s">
-        <v>448</v>
-      </c>
-      <c r="C570" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A571" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B571" t="s">
-        <v>761</v>
-      </c>
-      <c r="C571" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A572" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B572" t="s">
-        <v>763</v>
-      </c>
-      <c r="C572" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A573" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B573" t="s">
-        <v>765</v>
-      </c>
-      <c r="C573" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A574" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B574" t="s">
-        <v>767</v>
-      </c>
-      <c r="C574" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A575" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B575" t="s">
-        <v>716</v>
-      </c>
-      <c r="C575" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A576" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B576" t="s">
-        <v>770</v>
-      </c>
-      <c r="C576" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A577" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B577" t="s">
-        <v>452</v>
-      </c>
-      <c r="C577" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A578" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B578" t="s">
-        <v>454</v>
-      </c>
-      <c r="C578" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A579" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B579" t="s">
-        <v>456</v>
-      </c>
-      <c r="C579" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A580" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B580" t="s">
-        <v>458</v>
-      </c>
-      <c r="C580" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A581" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B581" t="s">
-        <v>460</v>
-      </c>
-      <c r="C581" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A582" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B582" t="s">
-        <v>462</v>
-      </c>
-      <c r="C582" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A583" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B583" t="s">
-        <v>464</v>
-      </c>
-      <c r="C583" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A584" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B584" t="s">
-        <v>298</v>
-      </c>
-      <c r="C584" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A585" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B585" t="s">
-        <v>467</v>
-      </c>
-      <c r="C585" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A586" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B586" t="s">
-        <v>469</v>
-      </c>
-      <c r="C586" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A587" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B587" t="s">
-        <v>314</v>
-      </c>
-      <c r="C587" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A588" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B588" t="s">
-        <v>471</v>
-      </c>
-      <c r="C588" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A589" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B589" t="s">
-        <v>473</v>
-      </c>
-      <c r="C589" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A590" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B590" t="s">
-        <v>475</v>
-      </c>
-      <c r="C590" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A591" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B591" t="s">
-        <v>477</v>
-      </c>
-      <c r="C591" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A592" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B592" t="s">
-        <v>479</v>
-      </c>
-      <c r="C592" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A593" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B593" t="s">
-        <v>481</v>
-      </c>
-      <c r="C593" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A594" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B594" t="s">
-        <v>483</v>
-      </c>
-      <c r="C594" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A595" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B595" t="s">
-        <v>485</v>
-      </c>
-      <c r="C595" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A596" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B596" t="s">
-        <v>791</v>
-      </c>
-      <c r="C596" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A597" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B597" t="s">
-        <v>487</v>
-      </c>
-      <c r="C597" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A598" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B598" t="s">
-        <v>489</v>
-      </c>
-      <c r="C598" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A599" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B599" t="s">
-        <v>493</v>
-      </c>
-      <c r="C599" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A600" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B600" t="s">
-        <v>495</v>
-      </c>
-      <c r="C600" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A601" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B601" t="s">
-        <v>497</v>
-      </c>
-      <c r="C601" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A602" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B602" t="s">
-        <v>499</v>
-      </c>
-      <c r="C602" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A603" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B603" t="s">
-        <v>501</v>
-      </c>
-      <c r="C603" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A604" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B604" t="s">
-        <v>800</v>
-      </c>
-      <c r="C604" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A605" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B605" t="s">
-        <v>802</v>
-      </c>
-      <c r="C605" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A606" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B606" t="s">
-        <v>503</v>
-      </c>
-      <c r="C606" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A607" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B607" t="s">
-        <v>505</v>
-      </c>
-      <c r="C607" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A608" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B608" t="s">
-        <v>507</v>
-      </c>
-      <c r="C608" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A609" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B609" t="s">
-        <v>509</v>
-      </c>
-      <c r="C609" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A610" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B610" t="s">
-        <v>511</v>
-      </c>
-      <c r="C610" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A611" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B611" t="s">
-        <v>513</v>
-      </c>
-      <c r="C611" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A612" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B612" t="s">
-        <v>810</v>
-      </c>
-      <c r="C612" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A613" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B613" t="s">
-        <v>812</v>
-      </c>
-      <c r="C613" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A614" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B614" t="s">
-        <v>515</v>
-      </c>
-      <c r="C614" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A615" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B615" t="s">
-        <v>517</v>
-      </c>
-      <c r="C615" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A616" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B616" t="s">
-        <v>519</v>
-      </c>
-      <c r="C616" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A617" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B617" t="s">
-        <v>521</v>
-      </c>
-      <c r="C617" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A618" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B618" t="s">
-        <v>523</v>
-      </c>
-      <c r="C618" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A619" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B619" t="s">
-        <v>525</v>
-      </c>
-      <c r="C619" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A620" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B620" t="s">
-        <v>527</v>
-      </c>
-      <c r="C620" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A621" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B621" t="s">
-        <v>529</v>
-      </c>
-      <c r="C621" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A622" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B622" t="s">
-        <v>531</v>
-      </c>
-      <c r="C622" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A623" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B623" t="s">
-        <v>533</v>
-      </c>
-      <c r="C623" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A624" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B624" t="s">
-        <v>535</v>
-      </c>
-      <c r="C624" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A625" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B625" t="s">
-        <v>537</v>
-      </c>
-      <c r="C625" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A626" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B626" t="s">
-        <v>259</v>
-      </c>
-      <c r="C626" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A627" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B627" t="s">
-        <v>539</v>
-      </c>
-      <c r="C627" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A628" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B628" t="s">
-        <v>828</v>
-      </c>
-      <c r="C628" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A629" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B629" t="s">
-        <v>541</v>
-      </c>
-      <c r="C629" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A630" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B630" t="s">
-        <v>831</v>
-      </c>
-      <c r="C630" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A631" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B631" t="s">
-        <v>833</v>
-      </c>
-      <c r="C631" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A632" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B632" t="s">
-        <v>543</v>
-      </c>
-      <c r="C632" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A633" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B633" t="s">
-        <v>545</v>
-      </c>
-      <c r="C633" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A634" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B634" t="s">
-        <v>547</v>
-      </c>
-      <c r="C634" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A635" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B635" t="s">
-        <v>549</v>
-      </c>
-      <c r="C635" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A636" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B636" t="s">
-        <v>551</v>
-      </c>
-      <c r="C636" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A637" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B637" t="s">
-        <v>553</v>
-      </c>
-      <c r="C637" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A638" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B638" t="s">
-        <v>841</v>
-      </c>
-      <c r="C638" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A639" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B639" t="s">
-        <v>555</v>
-      </c>
-      <c r="C639" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A640" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B640" t="s">
-        <v>559</v>
-      </c>
-      <c r="C640" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A641" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B641" t="s">
-        <v>561</v>
-      </c>
-      <c r="C641" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A642" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B642" t="s">
-        <v>563</v>
-      </c>
-      <c r="C642" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A643" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B643" t="s">
-        <v>565</v>
-      </c>
-      <c r="C643" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A644" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B644" t="s">
-        <v>848</v>
-      </c>
-      <c r="C644" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A645" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B645" t="s">
-        <v>569</v>
-      </c>
-      <c r="C645" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A646" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B646" t="s">
-        <v>571</v>
-      </c>
-      <c r="C646" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A647" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B647" t="s">
-        <v>573</v>
-      </c>
-      <c r="C647" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A648" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B648" t="s">
-        <v>575</v>
-      </c>
-      <c r="C648" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A649" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B649" t="s">
-        <v>175</v>
-      </c>
-      <c r="C649" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A650" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B650" t="s">
-        <v>577</v>
-      </c>
-      <c r="C650" t="s">
+      <c r="B528" s="3" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A651" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B651" t="s">
-        <v>579</v>
-      </c>
-      <c r="C651" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A652" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B652" t="s">
-        <v>857</v>
-      </c>
-      <c r="C652" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A653" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B653" t="s">
-        <v>551</v>
-      </c>
-      <c r="C653" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A654" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B654" t="s">
-        <v>860</v>
-      </c>
-      <c r="C654" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A655" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B655" t="s">
-        <v>583</v>
-      </c>
-      <c r="C655" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A656" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B656" t="s">
-        <v>585</v>
-      </c>
-      <c r="C656" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A657" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B657" t="s">
-        <v>587</v>
-      </c>
-      <c r="C657" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A658" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B658" t="s">
-        <v>589</v>
-      </c>
-      <c r="C658" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A659" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B659" t="s">
-        <v>591</v>
-      </c>
-      <c r="C659" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A660" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B660" t="s">
-        <v>549</v>
-      </c>
-      <c r="C660" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A661" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B661" t="s">
-        <v>868</v>
-      </c>
-      <c r="C661" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A662" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B662" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C662" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A663" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B663" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C663" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A664" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B664" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C664" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A665" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B665" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C665" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A666" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B666" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C666" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A667" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B667" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C667" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A668" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B668" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C668" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A669" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B669" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C669" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A670" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B670" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C670" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A671" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B671" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C671" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A672" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B672" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C672" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A673" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="B673" s="3" t="s">
-        <v>871</v>
-      </c>
-      <c r="C673" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A674" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="B674" s="3" t="s">
-        <v>872</v>
-      </c>
-      <c r="C674" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A675" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="B675" s="3" t="s">
-        <v>873</v>
-      </c>
-      <c r="C675" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A676" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="B676" s="3" t="s">
-        <v>874</v>
-      </c>
-      <c r="C676" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A677" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B677" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="C677" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A678" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B678" s="3" t="s">
-        <v>877</v>
-      </c>
-      <c r="C678" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A679" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B679" s="3" t="s">
-        <v>878</v>
-      </c>
-      <c r="C679" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A680" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B680" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="C680" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A681" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B681" s="3" t="s">
-        <v>880</v>
-      </c>
-      <c r="C681" s="3" t="s">
-        <v>19</v>
+      <c r="C528" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
